--- a/Document/Layout Manager Leave.xlsx
+++ b/Document/Layout Manager Leave.xlsx
@@ -5,20 +5,34 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WorkProject\mtv_management_leave\Document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7485" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11730" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="List Leave Emp" sheetId="2" r:id="rId1"/>
-    <sheet name="Register Leave" sheetId="1" r:id="rId2"/>
-    <sheet name="Leave Summary" sheetId="3" r:id="rId3"/>
-    <sheet name="In-Out" sheetId="4" r:id="rId4"/>
-    <sheet name="(Amin) Phép đầu năm" sheetId="5" r:id="rId5"/>
+    <sheet name="CreateLeaveBonus" sheetId="19" r:id="rId1"/>
+    <sheet name="AddLeaveBonus (Admin)" sheetId="18" r:id="rId2"/>
+    <sheet name="CreateDataBeginYear" sheetId="17" r:id="rId3"/>
+    <sheet name="DataBeginYear (Admin)" sheetId="16" r:id="rId4"/>
+    <sheet name="CreateDayOff" sheetId="15" r:id="rId5"/>
+    <sheet name="DayOff (Admin)" sheetId="14" r:id="rId6"/>
+    <sheet name="UserSeniority (Admin)" sheetId="13" r:id="rId7"/>
+    <sheet name="UserSeniority" sheetId="12" r:id="rId8"/>
+    <sheet name="RequestChangeInout (Admin)" sheetId="11" r:id="rId9"/>
+    <sheet name="Register_RequestChangeInout" sheetId="10" r:id="rId10"/>
+    <sheet name="RequestChangeInout" sheetId="9" r:id="rId11"/>
+    <sheet name="List Leave Emp" sheetId="2" r:id="rId12"/>
+    <sheet name="List Leave Emp (Admin)" sheetId="6" r:id="rId13"/>
+    <sheet name="Register Leave" sheetId="1" r:id="rId14"/>
+    <sheet name="Leave Summary" sheetId="3" r:id="rId15"/>
+    <sheet name="Leave Summary (Admin)" sheetId="7" r:id="rId16"/>
+    <sheet name="Generate Leave Summary (Admin)" sheetId="8" r:id="rId17"/>
+    <sheet name="In-Out" sheetId="4" r:id="rId18"/>
+    <sheet name="(Amin) Phép đầu năm" sheetId="5" r:id="rId19"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="330"/>
@@ -31,6 +45,125 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SaveDataBeginYear(DataBeginYear dataInput, List&lt;int&gt; lstUid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D17" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RequestChangeInoutBase.SaveRequestChange</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RequestChangeInoutBase.GetRequestChangeInout</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Sẽ đi qua màn hình "Register_RequestChangeInout"</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>Api: RequestChangeInoutBase.DeleteRequestChange(List&lt;int&gt; lstIdRequest)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -81,7 +214,59 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Call Api "LeaveBase.GetLeave" cho 1 nhân viên
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>leavebase.ApproveLeave</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I8" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t xml:space="preserve">Api: LeaveBase.RejectLeave
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -156,13 +341,13 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E5" authorId="0" shapeId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +357,8 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>LeaveTotalMonthly.GetLastTotalMonthly(int year, int uid)</t>
+          <t xml:space="preserve">LeaveTotalMonthly.GetTotalMonthlyBeginYear(DateTime monthYear, List&lt;int&gt; lstUid)
+</t>
         </r>
       </text>
     </comment>
@@ -180,7 +366,80 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">LeaveTotalMonthly.GetTotalMonthlyBeginYear(DateTime monthYear, List&lt;int&gt; lstUid)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="C9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+LeaveTotalMonthly.SaveLastTotalMonthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">LeaveTotalMonthly.ReCalculateTotalMonthlyAllYear
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -217,8 +476,404 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DayOffCompanyBase.GetLeaveDayCompany(DateTime dateStart, DateTime DateEnd)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+UserSeniorityBase.GenerateUserSeniority</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+deleteDataBeginYear(List&lt;int&gt; lstId)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+SaveDataBeginYear(DataBeginYear dataInput, List&lt;int&gt; lstUid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DayOffCompanyBase.GetLeaveDayCompany(DateTime dateStart, DateTime DateEnd)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+UserSeniorityBase.GenerateUserSeniority</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+deleteDataBeginYear(List&lt;int&gt; lstId)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+DayOffCompanyBase.SaveLeaveDayCompany</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="E6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>DayOffCompanyBase.GetLeaveDayCompany(DateTime dateStart, DateTime DateEnd)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+UserSeniorityBase.GenerateUserSeniority</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="O5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">UserSeniorityBase.GetUserSeniority
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+UserSeniorityBase.GenerateUserSeniority</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="P5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">LeaveTotalMonthly.GetTotalMonthlyBeginYear(DateTime monthYear, List&lt;int&gt; lstUid)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>RequestChangeInoutBase.GetRequestChangeInout</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Calibri"/>
+          </rPr>
+          <t>RequestChangeInoutBase.ApproveRequestChange</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+RequestChangeInoutBase.RejectRequestChange</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="123">
   <si>
     <t>Tên nhân viên</t>
   </si>
@@ -439,13 +1094,167 @@
   </si>
   <si>
     <t>Tồn phép năm</t>
+  </si>
+  <si>
+    <t>Employee</t>
+  </si>
+  <si>
+    <t>[Nhap Ten Nhan vien]</t>
+  </si>
+  <si>
+    <t>Approve</t>
+  </si>
+  <si>
+    <t>Reject</t>
+  </si>
+  <si>
+    <t>Ten NV</t>
+  </si>
+  <si>
+    <t>Ma NV</t>
+  </si>
+  <si>
+    <t>Nguyen Van A</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>MonthYear</t>
+  </si>
+  <si>
+    <t>2017-12</t>
+  </si>
+  <si>
+    <t>Tính theo Tháng</t>
+  </si>
+  <si>
+    <t>Tính từ đầu năm</t>
+  </si>
+  <si>
+    <t>Generate Leave Summary (Admin)
+tính toán sumary leave</t>
+  </si>
+  <si>
+    <t>Màn hình danh sách dữ liệu yêu cầu thay đổi Inout</t>
+  </si>
+  <si>
+    <t>Giờ Vào</t>
+  </si>
+  <si>
+    <t>Giờ Ra</t>
+  </si>
+  <si>
+    <t>Lý Do</t>
+  </si>
+  <si>
+    <t>Đăng Ký Thay Đổi InOut</t>
+  </si>
+  <si>
+    <t>Lý do</t>
+  </si>
+  <si>
+    <t>Tháng1</t>
+  </si>
+  <si>
+    <t>Thang 2</t>
+  </si>
+  <si>
+    <t>Tháng 5</t>
+  </si>
+  <si>
+    <t>Tháng 6</t>
+  </si>
+  <si>
+    <t>Tháng 7</t>
+  </si>
+  <si>
+    <t>tháng 8</t>
+  </si>
+  <si>
+    <t>tháng 9</t>
+  </si>
+  <si>
+    <t>tháng 10</t>
+  </si>
+  <si>
+    <t>thasg 11</t>
+  </si>
+  <si>
+    <t>Tháng 12</t>
+  </si>
+  <si>
+    <t>Generate</t>
+  </si>
+  <si>
+    <t>Ngày nghỉ</t>
+  </si>
+  <si>
+    <t>Lễ 30/4</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Ngày</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                            </t>
+  </si>
+  <si>
+    <t>Leave Available</t>
+  </si>
+  <si>
+    <t>Month Begin</t>
+  </si>
+  <si>
+    <t>Nv</t>
+  </si>
+  <si>
+    <t>Thông tin phép đầu năm</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nhân viên </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số Ngày </t>
+  </si>
+  <si>
+    <t>Hour</t>
+  </si>
+  <si>
+    <t>Reason</t>
+  </si>
+  <si>
+    <t>Tu</t>
+  </si>
+  <si>
+    <t>den</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Nguyen van A</t>
+  </si>
+  <si>
+    <t>Tang ca</t>
+  </si>
+  <si>
+    <t>Số Gio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ly do </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,16 +1301,41 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -764,11 +1598,100 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -817,6 +1740,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -880,6 +1815,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1160,10 +2147,617 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="47"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="47"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="25"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="25"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="24"/>
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A9:E10"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="25"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="75" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="75" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="78"/>
+      <c r="B13" s="47"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="78"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="78"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="25"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="24"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="25"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="24"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="25"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="24"/>
+    </row>
+    <row r="19" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="A12:E15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="69"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="41"/>
+      <c r="F7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="19"/>
+      <c r="H10" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1178,24 +2772,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="16"/>
@@ -1225,10 +2819,10 @@
       <c r="A5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="37"/>
+      <c r="C5" s="41"/>
       <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
@@ -1257,10 +2851,10 @@
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="37"/>
+      <c r="E7" s="41"/>
       <c r="F7" s="3" t="s">
         <v>24</v>
       </c>
@@ -1287,10 +2881,10 @@
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="40"/>
+      <c r="E9" s="44"/>
       <c r="F9" s="3" t="s">
         <v>8</v>
       </c>
@@ -1314,10 +2908,10 @@
       <c r="C10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="38" t="s">
+      <c r="D10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="19" t="s">
         <v>32</v>
       </c>
@@ -1341,10 +2935,10 @@
       <c r="C11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="38" t="s">
+      <c r="D11" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="E11" s="38"/>
+      <c r="E11" s="42"/>
       <c r="F11" s="19" t="s">
         <v>34</v>
       </c>
@@ -1368,10 +2962,10 @@
       <c r="C12" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="38" t="s">
+      <c r="D12" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="38"/>
+      <c r="E12" s="42"/>
       <c r="F12" s="19" t="s">
         <v>36</v>
       </c>
@@ -1422,7 +3016,283 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="17"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="63"/>
+      <c r="C6" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="F8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="41"/>
+      <c r="I8" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="3">
+        <v>8</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="3">
+        <v>8</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" s="3">
+        <v>8</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -1439,15 +3309,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="40"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
@@ -1462,11 +3332,11 @@
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="45" t="s">
+      <c r="D3" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="47"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1579,44 +3449,44 @@
       <c r="A13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
       <c r="F13" s="8"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="43"/>
-      <c r="E14" s="43"/>
+      <c r="B14" s="47"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="8"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
+      <c r="A15" s="47"/>
+      <c r="B15" s="47"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="43"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
+      <c r="A16" s="47"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="8"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="43"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
+      <c r="A17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
       <c r="F17" s="8"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1667,49 +3537,59 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:E13"/>
+  <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="48" t="s">
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="50"/>
-    </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="51"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="53"/>
-    </row>
-    <row r="3" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
       <c r="E3" s="20"/>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
       <c r="D4" s="22"/>
-      <c r="E4" s="23"/>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B5" s="26" t="s">
         <v>41</v>
       </c>
@@ -1717,88 +3597,465 @@
         <v>2017</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="27" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B6" s="25"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
-      <c r="E6" s="24"/>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="27" t="s">
+      <c r="G7" s="27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="26" t="s">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="27"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="27"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="27"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B10" s="26" t="s">
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="27"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="63" t="s">
         <v>45</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B12" s="25"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
-      <c r="E12" s="24"/>
-    </row>
-    <row r="13" spans="2:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="28"/>
       <c r="C13" s="29"/>
       <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="B1:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="64">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="63" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="27"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="26">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="27"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="26">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="26">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="66" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="25"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="68" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="25"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="25"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="25"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="28"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="C6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
@@ -1813,20 +4070,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="2:14" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
+      <c r="B2" s="59"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
     </row>
     <row r="3" spans="2:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
@@ -2023,7 +4280,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G7"/>
   <sheetViews>
@@ -2042,14 +4299,14 @@
       <c r="A3" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -2076,4 +4333,1576 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="3:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23"/>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="64" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="79">
+        <v>42736</v>
+      </c>
+      <c r="E5" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="79">
+        <v>42745</v>
+      </c>
+      <c r="G5" s="80"/>
+      <c r="H5" s="24"/>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="24"/>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="25"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="25"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="24"/>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>61</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>114</v>
+      </c>
+      <c r="H9" s="89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="88">
+        <v>42826</v>
+      </c>
+      <c r="G10" s="86">
+        <v>5</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="25"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="25"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="25"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="24"/>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B6:E6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:G12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C1" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+    </row>
+    <row r="2" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+    </row>
+    <row r="3" spans="3:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C4" s="21"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C5" s="64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D5" s="64"/>
+      <c r="E5" s="79">
+        <v>2017</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="87"/>
+    </row>
+    <row r="6" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C7" s="25"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C8" s="25"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="81">
+        <v>42855</v>
+      </c>
+      <c r="E10" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="88">
+        <v>42826</v>
+      </c>
+      <c r="G10" s="86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+    </row>
+    <row r="12" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G2"/>
+    <mergeCell ref="D6:G6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="122.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="45"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="70"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="73"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="39"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="76" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="24"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="85"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="24"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="24"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="78"/>
+      <c r="B9" s="47"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="78"/>
+      <c r="B10" s="47"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="24"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="78"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="24"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="78"/>
+      <c r="B12" s="47"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="25"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="24"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="25"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="24"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="25"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="24"/>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="A9:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="54"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="57"/>
+    </row>
+    <row r="3" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="81">
+        <v>42736</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="79">
+        <v>43070</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="82"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="83">
+        <v>42855</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="82"/>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="C8:G8"/>
+    <mergeCell ref="C9:G9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+    </row>
+    <row r="3" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="64">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="61" t="s">
+        <v>22</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="49"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="25"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="24"/>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="N8" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="63">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="3">
+        <v>5</v>
+      </c>
+      <c r="F9" s="3">
+        <v>5</v>
+      </c>
+      <c r="G9" s="61">
+        <v>5</v>
+      </c>
+      <c r="H9" s="61">
+        <v>5</v>
+      </c>
+      <c r="I9" s="61">
+        <v>6</v>
+      </c>
+      <c r="J9" s="61">
+        <v>6</v>
+      </c>
+      <c r="K9" s="61">
+        <v>6</v>
+      </c>
+      <c r="L9" s="61">
+        <v>6</v>
+      </c>
+      <c r="M9" s="61">
+        <v>6</v>
+      </c>
+      <c r="N9" s="61">
+        <v>6</v>
+      </c>
+      <c r="O9" s="61">
+        <v>6</v>
+      </c>
+      <c r="P9" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="25"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="24"/>
+    </row>
+    <row r="11" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="28"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+      <c r="O11" s="29"/>
+      <c r="P11" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:P2"/>
+    <mergeCell ref="C6:J6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="6.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="53"/>
+      <c r="N1" s="53"/>
+      <c r="O1" s="53"/>
+      <c r="P1" s="54"/>
+    </row>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="55"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="57"/>
+    </row>
+    <row r="3" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="23"/>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="27" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" s="25"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="24"/>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" s="65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7" s="61" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="J7" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="L7" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="M7" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="N7" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="P7" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B8" s="26">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="63">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>5</v>
+      </c>
+      <c r="G8" s="61">
+        <v>5</v>
+      </c>
+      <c r="H8" s="61">
+        <v>5</v>
+      </c>
+      <c r="I8" s="61">
+        <v>6</v>
+      </c>
+      <c r="J8" s="61">
+        <v>6</v>
+      </c>
+      <c r="K8" s="61">
+        <v>6</v>
+      </c>
+      <c r="L8" s="61">
+        <v>6</v>
+      </c>
+      <c r="M8" s="61">
+        <v>6</v>
+      </c>
+      <c r="N8" s="61">
+        <v>6</v>
+      </c>
+      <c r="O8" s="61">
+        <v>6</v>
+      </c>
+      <c r="P8" s="27">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B9" s="25"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="24"/>
+    </row>
+    <row r="10" spans="2:16" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="28"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+      <c r="O10" s="29"/>
+      <c r="P10" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="69"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="17"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="41"/>
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="9"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="41" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="41"/>
+      <c r="F8" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="19"/>
+      <c r="H11" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="19"/>
+      <c r="H12" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="19"/>
+      <c r="H13" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Document/Layout Manager Leave.xlsx
+++ b/Document/Layout Manager Leave.xlsx
@@ -1,32 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WORKING\Project\LManagement\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950" tabRatio="500" firstSheet="16" activeTab="18"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="500" firstSheet="11" activeTab="13"/>
   </bookViews>
   <sheets>
-    <sheet name="CreateLeaveBonus" sheetId="19" r:id="rId1"/>
-    <sheet name="AddLeaveBonus (Admin)" sheetId="18" r:id="rId2"/>
-    <sheet name="CreateDataBeginYear" sheetId="17" r:id="rId3"/>
-    <sheet name="DataBeginYear (Admin)" sheetId="16" r:id="rId4"/>
-    <sheet name="CreateDayOff" sheetId="15" r:id="rId5"/>
-    <sheet name="DayOff (Admin)" sheetId="14" r:id="rId6"/>
-    <sheet name="UserSeniority (Admin)" sheetId="13" r:id="rId7"/>
-    <sheet name="UserSeniority" sheetId="12" r:id="rId8"/>
-    <sheet name="RequestChangeInout (Admin)" sheetId="11" r:id="rId9"/>
-    <sheet name="Register_RequestChangeInout" sheetId="10" r:id="rId10"/>
-    <sheet name="RequestChangeInout" sheetId="9" r:id="rId11"/>
-    <sheet name="List Leave Emp" sheetId="2" r:id="rId12"/>
-    <sheet name="List Leave Emp (Admin)" sheetId="6" r:id="rId13"/>
-    <sheet name="Register Leave" sheetId="1" r:id="rId14"/>
-    <sheet name="Leave Summary" sheetId="3" r:id="rId15"/>
-    <sheet name="Leave Summary (Admin)" sheetId="7" r:id="rId16"/>
-    <sheet name="Generate Leave Summary (Admin)" sheetId="8" r:id="rId17"/>
-    <sheet name="In-Out" sheetId="4" r:id="rId18"/>
-    <sheet name="In-Out (Admin" sheetId="20" r:id="rId19"/>
-    <sheet name="(Amin) Phép đầu năm" sheetId="5" r:id="rId20"/>
+    <sheet name="Menu (Admin)" sheetId="22" r:id="rId1"/>
+    <sheet name="Menu (User)" sheetId="21" r:id="rId2"/>
+    <sheet name="CreateLeaveBonus" sheetId="19" r:id="rId3"/>
+    <sheet name="AddLeaveBonus (Admin)" sheetId="18" r:id="rId4"/>
+    <sheet name="CreateDataBeginYear" sheetId="17" r:id="rId5"/>
+    <sheet name="DataBeginYear (Admin)" sheetId="16" r:id="rId6"/>
+    <sheet name="CreateDayOff" sheetId="15" r:id="rId7"/>
+    <sheet name="DayOff (Admin)" sheetId="14" r:id="rId8"/>
+    <sheet name="UserSeniority (Admin)" sheetId="13" r:id="rId9"/>
+    <sheet name="UserSeniority" sheetId="12" r:id="rId10"/>
+    <sheet name="RequestChangeInout (Admin)" sheetId="11" r:id="rId11"/>
+    <sheet name="Register_RequestChangeInout" sheetId="10" r:id="rId12"/>
+    <sheet name="RequestChangeInout" sheetId="9" r:id="rId13"/>
+    <sheet name="List Leave Emp" sheetId="2" r:id="rId14"/>
+    <sheet name="List Leave Emp (Admin)" sheetId="6" r:id="rId15"/>
+    <sheet name="Register Leave" sheetId="1" r:id="rId16"/>
+    <sheet name="Leave Summary" sheetId="3" r:id="rId17"/>
+    <sheet name="Leave Summary (Admin)" sheetId="7" r:id="rId18"/>
+    <sheet name="Generate Leave Summary (Admin)" sheetId="8" r:id="rId19"/>
+    <sheet name="In-Out" sheetId="4" r:id="rId20"/>
+    <sheet name="In-Out (Admin" sheetId="20" r:id="rId21"/>
+    <sheet name="(Amin) Phép đầu năm" sheetId="5" r:id="rId22"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -38,7 +45,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -70,7 +77,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -103,7 +110,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1">
+    <comment ref="D7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -129,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -153,7 +160,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -166,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1">
+    <comment ref="D7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -179,7 +186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -203,7 +210,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="1">
+    <comment ref="G8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -229,7 +236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="1">
+    <comment ref="I8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +261,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -268,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -290,7 +297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +311,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="1">
+    <comment ref="D19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -327,7 +334,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +358,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -375,7 +382,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -397,7 +404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -420,7 +427,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -433,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -457,7 +464,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -470,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -494,7 +501,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -507,7 +514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -529,7 +536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -561,7 +568,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -593,7 +600,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -606,7 +613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -628,7 +635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -660,7 +667,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -692,7 +699,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -705,7 +712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -737,7 +744,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="O5" authorId="0">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0">
+    <comment ref="P5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -783,7 +790,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="P5" authorId="0">
+    <comment ref="P5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -808,7 +815,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -821,7 +828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="1">
+    <comment ref="D8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -834,7 +841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -861,7 +868,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="147">
   <si>
     <t>Thông tin phép đầu năm</t>
   </si>
@@ -1240,18 +1247,81 @@
   <si>
     <t>Phép Đầu Năm</t>
   </si>
+  <si>
+    <t>Employee Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">View Information </t>
+  </si>
+  <si>
+    <t>Register leave</t>
+  </si>
+  <si>
+    <t>InOut</t>
+  </si>
+  <si>
+    <t>List Inout</t>
+  </si>
+  <si>
+    <t>Request Change InOut</t>
+  </si>
+  <si>
+    <t>Summary Annual leave</t>
+  </si>
+  <si>
+    <t>List Sumary Annual Laeve</t>
+  </si>
+  <si>
+    <t>List Employee (View, Create, Update, Change Role)</t>
+  </si>
+  <si>
+    <t>List All Employee Register leave (Approve, Reject)</t>
+  </si>
+  <si>
+    <t>Sumary InOut (GetData from Print device, Calculate Sumary InOut)</t>
+  </si>
+  <si>
+    <t>leave of Company</t>
+  </si>
+  <si>
+    <t>List Sumary Annual Laeve (Search, Canculate for Sumary Annual Leave)</t>
+  </si>
+  <si>
+    <t>List Leave Company (Create, Update, View, Delete)</t>
+  </si>
+  <si>
+    <t>List Request Change Inout (Approve , Reject)</t>
+  </si>
+  <si>
+    <t>List Register leave (Register, Delete)</t>
+  </si>
+  <si>
+    <t>List Request Change Inout (Register, Delete)</t>
+  </si>
+  <si>
+    <t>Available begin Year</t>
+  </si>
+  <si>
+    <t>Add Leave Bonus</t>
+  </si>
+  <si>
+    <t>Seniority Bonus</t>
+  </si>
+  <si>
+    <t>List Available Begin Year (Add, Update, Auto Calculate )</t>
+  </si>
+  <si>
+    <t>List  Leave Bonus (Add, Update)</t>
+  </si>
+  <si>
+    <t>List  Leave Bonus (Add, Update, Auto Calculate)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1275,158 +1345,47 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1435,7 +1394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1445,194 +1404,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1984,253 +1757,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="37" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="36" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2247,9 +1781,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2258,37 +1789,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2297,43 +1804,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2344,6 +1827,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2353,92 +1863,89 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2696,16 +2203,650 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:I13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="18.875" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="B21" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:16">
+      <c r="B1" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="80"/>
+    </row>
+    <row r="2" spans="2:16">
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="81"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="2:16">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="2:16">
+      <c r="B5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="2:16">
+      <c r="B7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="26">
+        <v>2017</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="9">
+        <v>5</v>
+      </c>
+      <c r="G8" s="38">
+        <v>5</v>
+      </c>
+      <c r="H8" s="38">
+        <v>5</v>
+      </c>
+      <c r="I8" s="38">
+        <v>6</v>
+      </c>
+      <c r="J8" s="38">
+        <v>6</v>
+      </c>
+      <c r="K8" s="38">
+        <v>6</v>
+      </c>
+      <c r="L8" s="38">
+        <v>6</v>
+      </c>
+      <c r="M8" s="38">
+        <v>6</v>
+      </c>
+      <c r="N8" s="38">
+        <v>6</v>
+      </c>
+      <c r="O8" s="38">
+        <v>6</v>
+      </c>
+      <c r="P8" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="B9" s="6"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="16"/>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:P2"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="9.375" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="39.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="86" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="41"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="28"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="82" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="82"/>
+      <c r="D5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="74"/>
+      <c r="C6" s="75"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="28"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="29"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="28"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="29"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="82" t="s">
+        <v>61</v>
+      </c>
+      <c r="E8" s="82"/>
+      <c r="F8" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="29"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="28"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="64"/>
+      <c r="F10" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="9">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D11" s="84" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11" s="85"/>
+      <c r="F11" s="59" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="40"/>
+      <c r="H11" s="9" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="9">
+        <v>1</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="85"/>
+      <c r="F12" s="59" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13" s="85"/>
+      <c r="F13" s="59" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="40"/>
+      <c r="H13" s="9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="29"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="28"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="34"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:F2"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2716,16 +2857,16 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="122.1" customHeight="1">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2734,219 +2875,61 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="8"/>
+    <row r="4" spans="1:7">
+      <c r="A4" s="44" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="43" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>3</v>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B5" s="9">
+        <v>1</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="44"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="44"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="80" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="6"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="17"/>
-      <c r="I12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" ht="16.5" spans="1:6">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="A9:E10"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="B5" s="9">
-        <v>1</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="65" t="s">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="64" t="s">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="44" t="s">
         <v>34</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -2957,10 +2940,10 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="64" t="s">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
       <c r="B9" s="9" t="s">
@@ -2971,77 +2954,77 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="66" t="s">
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="67"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="67"/>
-      <c r="B13" s="44"/>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="67"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="17"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="67"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="17"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="B11" s="77"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="78"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="78"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="78"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="16"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="78"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="16"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="17"/>
+      <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="6"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="17"/>
+      <c r="F17" s="16"/>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="6"/>
@@ -3049,15 +3032,15 @@
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="17"/>
-    </row>
-    <row r="19" ht="16.5" spans="1:6">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="18"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3066,22 +3049,20 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A12:E15"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
     <col min="2" max="2" width="9.375" customWidth="1"/>
@@ -3092,56 +3073,56 @@
     <col min="7" max="7" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="86" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="58"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="41"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="37"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="40"/>
+      <c r="H4" s="28"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
@@ -3149,44 +3130,44 @@
         <v>60</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="41"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="40"/>
+      <c r="H6" s="28"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="41"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="40"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="41"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="40"/>
+      <c r="H8" s="28"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="9"/>
@@ -3196,10 +3177,10 @@
       <c r="C9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="9" t="s">
         <v>65</v>
       </c>
@@ -3220,14 +3201,14 @@
       <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="83" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="G10" s="57"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="9" t="s">
         <v>70</v>
       </c>
@@ -3242,14 +3223,14 @@
       <c r="C11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="83" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="59" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="57"/>
+      <c r="G11" s="40"/>
       <c r="H11" s="9" t="s">
         <v>73</v>
       </c>
@@ -3264,61 +3245,59 @@
       <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="83" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="G12" s="57"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="9" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="41"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="40"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="47"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:F2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3332,58 +3311,58 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="40"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
@@ -3393,10 +3372,10 @@
       <c r="F5" s="9"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="40"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="41"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
@@ -3404,27 +3383,27 @@
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="40"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="41"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="52"/>
+      <c r="E7" s="82"/>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="40"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="41"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -3432,7 +3411,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
-      <c r="I8" s="40"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="9"/>
@@ -3442,10 +3421,10 @@
       <c r="C9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="38"/>
+      <c r="E9" s="64"/>
       <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
@@ -3469,11 +3448,11 @@
       <c r="C10" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="82" t="s">
+      <c r="D10" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="56"/>
-      <c r="F10" s="83" t="s">
+      <c r="E10" s="85"/>
+      <c r="F10" s="59" t="s">
         <v>69</v>
       </c>
       <c r="G10" s="9" t="s">
@@ -3496,11 +3475,11 @@
       <c r="C11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="83" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="59" t="s">
         <v>72</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -3523,11 +3502,11 @@
       <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="83" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="59" t="s">
         <v>75</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -3541,7 +3520,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="41"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -3549,38 +3528,36 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="I13" s="40"/>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="45"/>
-      <c r="B14" s="46"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="47"/>
+      <c r="A14" s="32"/>
+      <c r="B14" s="33"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:G2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -3598,58 +3575,58 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="86" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="86"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="51"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="37"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
-      <c r="I4" s="40"/>
+      <c r="I4" s="28"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="52" t="s">
+      <c r="B5" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
@@ -3659,25 +3636,25 @@
       <c r="F5" s="9"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
-      <c r="I5" s="40"/>
+      <c r="I5" s="28"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="53" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="38" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="35"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="26"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
-      <c r="I6" s="40"/>
+      <c r="I6" s="28"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="41"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -3685,24 +3662,24 @@
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="40"/>
+      <c r="I7" s="28"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="41"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="52"/>
+      <c r="H8" s="82"/>
       <c r="I8" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="41"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
@@ -3710,7 +3687,7 @@
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
-      <c r="I9" s="40"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="9"/>
@@ -3720,10 +3697,10 @@
       <c r="C10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="38"/>
+      <c r="E10" s="64"/>
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
@@ -3747,11 +3724,11 @@
       <c r="C11" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="82" t="s">
+      <c r="D11" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="83" t="s">
+      <c r="E11" s="85"/>
+      <c r="F11" s="59" t="s">
         <v>69</v>
       </c>
       <c r="G11" s="9" t="s">
@@ -3774,11 +3751,11 @@
       <c r="C12" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D12" s="82" t="s">
+      <c r="D12" s="84" t="s">
         <v>71</v>
       </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="83" t="s">
+      <c r="E12" s="85"/>
+      <c r="F12" s="59" t="s">
         <v>72</v>
       </c>
       <c r="G12" s="9" t="s">
@@ -3801,11 +3778,11 @@
       <c r="C13" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="82" t="s">
+      <c r="D13" s="84" t="s">
         <v>74</v>
       </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="83" t="s">
+      <c r="E13" s="85"/>
+      <c r="F13" s="59" t="s">
         <v>75</v>
       </c>
       <c r="G13" s="9" t="s">
@@ -3819,7 +3796,7 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="41"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
       <c r="D14" s="8"/>
@@ -3827,45 +3804,43 @@
       <c r="F14" s="8"/>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
-      <c r="I14" s="40"/>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
-      <c r="I15" s="47"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="33"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:G2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="14.625" customWidth="1"/>
@@ -3873,18 +3848,18 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:7" ht="122.1" customHeight="1">
+      <c r="A1" s="62" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:7" ht="33" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3893,19 +3868,19 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="32"/>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="27" t="s">
+    <row r="3" spans="1:7" ht="18" customHeight="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="74" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="28"/>
-      <c r="F3" s="29"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="9" t="s">
@@ -3914,10 +3889,10 @@
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="40"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+      <c r="F4" s="28"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="27" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="9">
@@ -3926,32 +3901,32 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="40"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="41"/>
+      <c r="F5" s="28"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="29"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="40"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="42" t="s">
+      <c r="F6" s="28"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="30" t="s">
         <v>1</v>
       </c>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="40"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="41" t="s">
+      <c r="F7" s="28"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="29" t="s">
         <v>89</v>
       </c>
       <c r="B8" s="8"/>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="27" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="9" t="s">
@@ -3960,14 +3935,14 @@
       <c r="E8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="40"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="41" t="s">
+      <c r="F8" s="28"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="29" t="s">
         <v>90</v>
       </c>
       <c r="B9" s="8"/>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="27" t="s">
         <v>35</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -3976,119 +3951,119 @@
       <c r="E9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="F9" s="40"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="41"/>
+      <c r="F9" s="28"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="29"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="40"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="39" t="s">
+      <c r="F10" s="28"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="27" t="s">
         <v>82</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="39" t="s">
+      <c r="C11" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D11" s="9">
         <v>20</v>
       </c>
       <c r="E11" s="8"/>
-      <c r="F11" s="40"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="41"/>
+      <c r="F11" s="28"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="29"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="40"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="43" t="s">
+      <c r="F12" s="28"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="40"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="44" t="s">
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="28"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="68" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="40"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="40"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="44"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="40"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="28"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="28"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="40"/>
+      <c r="A17" s="68"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="41"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="40"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="41"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="39" t="s">
+      <c r="E19" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="40"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="41"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="40"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="45"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4097,22 +4072,20 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A14:E17"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
@@ -4122,30 +4095,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="81"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4"/>
@@ -4153,10 +4126,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="9">
@@ -4165,7 +4138,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4175,16 +4148,16 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="35" t="s">
+      <c r="D7" s="26" t="s">
         <v>95</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -4193,65 +4166,65 @@
       <c r="F7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G7" s="33" t="s">
+      <c r="G7" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="26">
+      <c r="B8" s="20">
         <v>1</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="26" t="s">
         <v>99</v>
       </c>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
-      <c r="G8" s="33"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="26" t="s">
         <v>100</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="26">
+      <c r="B10" s="20">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="26">
+      <c r="B11" s="20">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6"/>
@@ -4259,36 +4232,34 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" ht="16.5" spans="2:7">
-      <c r="B13" s="14"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="18"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
@@ -4298,30 +4269,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="81"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4"/>
@@ -4329,10 +4300,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="7">
@@ -4341,7 +4312,7 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="24" t="s">
         <v>14</v>
       </c>
     </row>
@@ -4349,11 +4320,11 @@
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6"/>
@@ -4361,16 +4332,16 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="26" t="s">
         <v>95</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -4379,65 +4350,65 @@
       <c r="F8" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="24" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="26" t="s">
         <v>99</v>
       </c>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
-      <c r="G9" s="33"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="26">
+      <c r="B10" s="20">
         <v>1</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D10" s="35" t="s">
+      <c r="D10" s="26" t="s">
         <v>100</v>
       </c>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
-      <c r="G10" s="33"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="26">
+      <c r="B11" s="20">
         <v>1</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="35" t="s">
+      <c r="D11" s="26" t="s">
         <v>45</v>
       </c>
       <c r="E11" s="9"/>
       <c r="F11" s="9"/>
-      <c r="G11" s="33"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="26">
+      <c r="B12" s="20">
         <v>1</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="35" t="s">
+      <c r="D12" s="26" t="s">
         <v>46</v>
       </c>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
-      <c r="G12" s="33"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="6"/>
@@ -4445,37 +4416,35 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="15.125" customWidth="1"/>
@@ -4486,30 +4455,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="87" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="81"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4"/>
@@ -4517,10 +4486,10 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>102</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -4529,17 +4498,17 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="29"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="76"/>
       <c r="F6" s="8"/>
-      <c r="G6" s="17"/>
+      <c r="G6" s="16"/>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="6"/>
@@ -4547,7 +4516,7 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7">
       <c r="B8" s="6"/>
@@ -4555,19 +4524,19 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="2:7">
       <c r="B9" s="6"/>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="21" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="31" t="s">
+      <c r="E9" s="22" t="s">
         <v>105</v>
       </c>
       <c r="F9" s="8"/>
-      <c r="G9" s="17"/>
+      <c r="G9" s="16"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="6"/>
@@ -4575,7 +4544,7 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="17"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="6"/>
@@ -4583,7 +4552,7 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="17"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="6"/>
@@ -4591,7 +4560,7 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-      <c r="G12" s="17"/>
+      <c r="G12" s="16"/>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="6"/>
@@ -4599,31 +4568,103 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" ht="16.5" spans="2:7">
-      <c r="B14" s="14"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="18"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="91" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" location="'List Leave Emp'!A1" display="List Register leave (Register, Delete)"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -4640,23 +4681,22 @@
     <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="2:6">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="16.5"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+    </row>
+    <row r="2" spans="2:14" ht="30" customHeight="1">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+    </row>
     <row r="4" spans="2:14">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -4670,7 +4710,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="6"/>
@@ -4689,7 +4729,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="6"/>
@@ -4708,7 +4748,7 @@
       <c r="M6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="6"/>
@@ -4723,7 +4763,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="6"/>
@@ -4760,7 +4800,7 @@
       <c r="M8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="6"/>
@@ -4770,14 +4810,14 @@
       <c r="D9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.375</v>
       </c>
-      <c r="G9" s="11">
-        <v>0.708333333333333</v>
+      <c r="G9" s="10">
+        <v>0.70833333333333304</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -4785,32 +4825,32 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="6"/>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>0.375</v>
       </c>
-      <c r="G10" s="13">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="17"/>
+      <c r="G10" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="6"/>
@@ -4825,39 +4865,37 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:14">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="18"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:F2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -4871,23 +4909,22 @@
     <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="88" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="2:6">
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-    </row>
-    <row r="3" ht="16.5"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+    </row>
+    <row r="2" spans="2:14" ht="30" customHeight="1">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+    </row>
     <row r="4" spans="2:14">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -4901,7 +4938,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="16"/>
+      <c r="N4" s="15"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="6"/>
@@ -4920,18 +4957,18 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
-      <c r="N5" s="17"/>
+      <c r="N5" s="16"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="6"/>
       <c r="C6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -4941,7 +4978,7 @@
       <c r="M6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="N6" s="17"/>
+      <c r="N6" s="16"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="6"/>
@@ -4956,7 +4993,7 @@
       <c r="K7" s="8"/>
       <c r="L7" s="8"/>
       <c r="M7" s="8"/>
-      <c r="N7" s="17"/>
+      <c r="N7" s="16"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="6"/>
@@ -4993,7 +5030,7 @@
       <c r="M8" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="16"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="6"/>
@@ -5003,14 +5040,14 @@
       <c r="D9" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E9" s="84" t="s">
+      <c r="E9" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>0.375</v>
       </c>
-      <c r="G9" s="11">
-        <v>0.708333333333333</v>
+      <c r="G9" s="10">
+        <v>0.70833333333333304</v>
       </c>
       <c r="H9" s="9"/>
       <c r="I9" s="9"/>
@@ -5018,32 +5055,32 @@
       <c r="K9" s="9"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
-      <c r="N9" s="17"/>
+      <c r="N9" s="16"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="6"/>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>1</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="61" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="12">
         <v>0.375</v>
       </c>
-      <c r="G10" s="13">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="17"/>
+      <c r="G10" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="16"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="6"/>
@@ -5058,209 +5095,42 @@
       <c r="K11" s="8"/>
       <c r="L11" s="8"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="17"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:14">
-      <c r="B12" s="14"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="18"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:F2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="C1:H12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
-  <cols>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:7">
-      <c r="C1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-    </row>
-    <row r="2" spans="3:7">
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" ht="16.5" spans="3:7">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="3:8">
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="16"/>
-    </row>
-    <row r="5" spans="3:8">
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="69">
-        <v>42736</v>
-      </c>
-      <c r="E5" s="69" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="69">
-        <v>42745</v>
-      </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="3:8">
-      <c r="C6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="78"/>
-      <c r="G6" s="78"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="3:8">
-      <c r="C7" s="6"/>
-      <c r="D7" s="8"/>
-      <c r="F7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="3:8">
-      <c r="C8" s="6"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="3:8">
-      <c r="C9" s="9"/>
-      <c r="D9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="75" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="75" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="75" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="79" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="3:8">
-      <c r="C10" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="76">
-        <v>42826</v>
-      </c>
-      <c r="G10" s="75">
-        <v>5</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="3:8">
-      <c r="C11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-    </row>
-    <row r="12" spans="3:8">
-      <c r="C12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="C1:G2"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
@@ -5271,16 +5141,16 @@
       <c r="A3" t="s">
         <v>121</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="90" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -5288,7 +5158,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5303,14 +5173,331 @@
   <mergeCells count="1">
     <mergeCell ref="B3:G3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="122.1" customHeight="1">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="68"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="6"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="6"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="16"/>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="A9:E10"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:H12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="4.625" customWidth="1"/>
+    <col min="4" max="5" width="12.375" customWidth="1"/>
+    <col min="6" max="6" width="11.25" customWidth="1"/>
+    <col min="7" max="7" width="6.25" customWidth="1"/>
+    <col min="8" max="8" width="12.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8">
+      <c r="C1" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="3:8">
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="3:8">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="3:8">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="15"/>
+    </row>
+    <row r="5" spans="3:8">
+      <c r="C5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="48">
+        <v>42736</v>
+      </c>
+      <c r="E5" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="48">
+        <v>42745</v>
+      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="3:8">
+      <c r="C6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="16"/>
+    </row>
+    <row r="7" spans="3:8">
+      <c r="C7" s="6"/>
+      <c r="D7" s="8"/>
+      <c r="F7" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8">
+      <c r="C8" s="6"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="3:8">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="53" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="56" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8">
+      <c r="C10" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="58" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="54">
+        <v>42826</v>
+      </c>
+      <c r="G10" s="53">
+        <v>5</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8">
+      <c r="C11" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="3:8">
+      <c r="C12" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="C1:G2"/>
+  </mergeCells>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5325,16 +5512,16 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    <row r="1" spans="1:9" ht="122.1" customHeight="1">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5343,29 +5530,29 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="43" t="s">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5374,19 +5561,19 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="39" t="s">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -5394,27 +5581,27 @@
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="6"/>
       <c r="B8" s="8"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="17"/>
+      <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="6"/>
@@ -5422,18 +5609,18 @@
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="17"/>
+      <c r="F10" s="16"/>
       <c r="I10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="18"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5441,22 +5628,20 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="3" max="3" width="4.625" customWidth="1"/>
     <col min="4" max="5" width="12.375" customWidth="1"/>
@@ -5465,54 +5650,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="32" t="s">
+      <c r="C1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
     </row>
     <row r="2" spans="3:7">
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-    </row>
-    <row r="3" ht="16.5" spans="3:7">
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="3:7">
       <c r="C5" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="69">
+      <c r="E5" s="48">
         <v>2017</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="74"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="29"/>
+      <c r="D6" s="74"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="76"/>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="6"/>
@@ -5532,20 +5717,20 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-      <c r="G8" s="17"/>
+      <c r="G8" s="16"/>
     </row>
     <row r="9" spans="3:7">
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="75" t="s">
+      <c r="F9" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="75" t="s">
+      <c r="G9" s="53" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5553,16 +5738,16 @@
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="47">
         <v>42855</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="76">
+      <c r="F10" s="54">
         <v>42826</v>
       </c>
-      <c r="G10" s="75">
+      <c r="G10" s="53">
         <v>5</v>
       </c>
     </row>
@@ -5589,15 +5774,13 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5612,16 +5795,16 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="36"/>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    <row r="1" spans="1:9" ht="122.1" customHeight="1">
+      <c r="A1" s="62"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="64"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5630,29 +5813,29 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="59"/>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="61" t="s">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="62"/>
-      <c r="F3" s="63"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="65" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="17"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="39" t="s">
+      <c r="F4" s="16"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="9" t="s">
@@ -5661,85 +5844,85 @@
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="17"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="73"/>
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="51"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="17"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="F6" s="16"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="6"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="66" t="s">
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="67"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="17"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="67"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="17"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="67"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="17"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="67"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="17"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="16"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="78"/>
+      <c r="B9" s="68"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="16"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="78"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="78"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="16"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="78"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="16"/>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="17"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="F13" s="16"/>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="6"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
-      <c r="D14" s="39" t="s">
+      <c r="D14" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="39" t="s">
+      <c r="E14" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="16"/>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="6"/>
@@ -5747,18 +5930,18 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8"/>
-      <c r="F15" s="17"/>
+      <c r="F15" s="16"/>
       <c r="I15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="18"/>
+    <row r="16" spans="1:9">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5767,22 +5950,20 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="A9:E12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="3" width="12.375" customWidth="1"/>
     <col min="4" max="4" width="7.5" customWidth="1"/>
@@ -5792,30 +5973,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="24"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="81"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="4"/>
@@ -5823,28 +6004,28 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="16"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="68">
+      <c r="C5" s="47">
         <v>42736</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="69">
+      <c r="E5" s="48">
         <v>43070</v>
       </c>
       <c r="F5" s="8"/>
-      <c r="G5" s="17"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="6"/>
-      <c r="C6" s="70"/>
-      <c r="D6" s="70"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
       <c r="E6" s="9" t="s">
         <v>14</v>
       </c>
@@ -5861,31 +6042,31 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="17"/>
+      <c r="G7" s="16"/>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="71"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="79"/>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="72">
+      <c r="B9" s="50">
         <v>42855</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="71"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="79"/>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="6"/>
@@ -5893,15 +6074,15 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:7">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="18"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5909,15 +6090,13 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -5937,57 +6116,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="2:16">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:16">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="73"/>
+      <c r="M2" s="73"/>
+      <c r="N2" s="73"/>
+      <c r="O2" s="73"/>
+      <c r="P2" s="81"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="4"/>
@@ -6004,10 +6183,10 @@
       <c r="M4" s="5"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
-      <c r="P4" s="16"/>
+      <c r="P4" s="15"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="C5" s="7">
@@ -6024,7 +6203,7 @@
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
       <c r="N5" s="8"/>
-      <c r="O5" s="53" t="s">
+      <c r="O5" s="38" t="s">
         <v>14</v>
       </c>
       <c r="P5" s="9" t="s">
@@ -6035,20 +6214,20 @@
       <c r="B6" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="29"/>
+      <c r="C6" s="74"/>
+      <c r="D6" s="75"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="75"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
       <c r="O6" s="8"/>
-      <c r="P6" s="17"/>
+      <c r="P6" s="16"/>
     </row>
     <row r="7" spans="2:16">
       <c r="B7" s="6"/>
@@ -6065,16 +6244,16 @@
       <c r="M7" s="8"/>
       <c r="N7" s="8"/>
       <c r="O7" s="8"/>
-      <c r="P7" s="17"/>
+      <c r="P7" s="16"/>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="25" t="s">
         <v>41</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="35" t="s">
+      <c r="D8" s="26" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="9" t="s">
@@ -6083,45 +6262,45 @@
       <c r="F8" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="53" t="s">
+      <c r="G8" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="K8" s="53" t="s">
+      <c r="K8" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="L8" s="53" t="s">
+      <c r="L8" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="M8" s="53" t="s">
+      <c r="M8" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="53" t="s">
+      <c r="N8" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="O8" s="53" t="s">
+      <c r="O8" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="P8" s="33" t="s">
+      <c r="P8" s="24" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:16">
-      <c r="B9" s="26">
+      <c r="B9" s="20">
         <v>1</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="35">
+      <c r="D9" s="26">
         <v>2017</v>
       </c>
       <c r="E9" s="9">
@@ -6130,34 +6309,34 @@
       <c r="F9" s="9">
         <v>5</v>
       </c>
-      <c r="G9" s="53">
+      <c r="G9" s="38">
         <v>5</v>
       </c>
-      <c r="H9" s="53">
+      <c r="H9" s="38">
         <v>5</v>
       </c>
-      <c r="I9" s="53">
+      <c r="I9" s="38">
         <v>6</v>
       </c>
-      <c r="J9" s="53">
+      <c r="J9" s="38">
         <v>6</v>
       </c>
-      <c r="K9" s="53">
+      <c r="K9" s="38">
         <v>6</v>
       </c>
-      <c r="L9" s="53">
+      <c r="L9" s="38">
         <v>6</v>
       </c>
-      <c r="M9" s="53">
+      <c r="M9" s="38">
         <v>6</v>
       </c>
-      <c r="N9" s="53">
+      <c r="N9" s="38">
         <v>6</v>
       </c>
-      <c r="O9" s="53">
+      <c r="O9" s="38">
         <v>6</v>
       </c>
-      <c r="P9" s="33">
+      <c r="P9" s="24">
         <v>6</v>
       </c>
     </row>
@@ -6176,554 +6355,31 @@
       <c r="M10" s="8"/>
       <c r="N10" s="8"/>
       <c r="O10" s="8"/>
-      <c r="P10" s="17"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:16">
-      <c r="B11" s="14"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15"/>
-      <c r="O11" s="15"/>
-      <c r="P11" s="18"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="B1:P2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:P10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="11" width="7.375" customWidth="1"/>
-    <col min="12" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="21"/>
-    </row>
-    <row r="2" spans="2:16">
-      <c r="B2" s="22"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="24"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:16">
-      <c r="B3" s="25"/>
-      <c r="C3" s="25"/>
-      <c r="D3" s="25"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="25"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="25"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="17"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>47</v>
-      </c>
-      <c r="J7" s="53" t="s">
-        <v>48</v>
-      </c>
-      <c r="K7" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="53" t="s">
-        <v>50</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>51</v>
-      </c>
-      <c r="N7" s="53" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="P7" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="26">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="35">
-        <v>2017</v>
-      </c>
-      <c r="E8" s="9">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9">
-        <v>5</v>
-      </c>
-      <c r="G8" s="53">
-        <v>5</v>
-      </c>
-      <c r="H8" s="53">
-        <v>5</v>
-      </c>
-      <c r="I8" s="53">
-        <v>6</v>
-      </c>
-      <c r="J8" s="53">
-        <v>6</v>
-      </c>
-      <c r="K8" s="53">
-        <v>6</v>
-      </c>
-      <c r="L8" s="53">
-        <v>6</v>
-      </c>
-      <c r="M8" s="53">
-        <v>6</v>
-      </c>
-      <c r="N8" s="53">
-        <v>6</v>
-      </c>
-      <c r="O8" s="53">
-        <v>6</v>
-      </c>
-      <c r="P8" s="33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="6"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="17"/>
-    </row>
-    <row r="10" ht="16.5" spans="2:16">
-      <c r="B10" s="14"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="18"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:P2"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
-    <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="39.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="48" t="s">
-        <v>56</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="58"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="48"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="49"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="51"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="B5" s="52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="41" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="41"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="41"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>61</v>
-      </c>
-      <c r="E8" s="52"/>
-      <c r="F8" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="41"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="40"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D10" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="9">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="82" t="s">
-        <v>68</v>
-      </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="83" t="s">
-        <v>69</v>
-      </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="9">
-        <v>1</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12" s="82" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" s="56"/>
-      <c r="F12" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="9">
-        <v>1</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="82" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="56"/>
-      <c r="F13" s="83" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="41"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="40"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="45"/>
-      <c r="B15" s="46"/>
-      <c r="C15" s="46"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:F2"/>
-  </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/Layout Manager Leave.xlsx
+++ b/Document/Layout Manager Leave.xlsx
@@ -9,31 +9,32 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="500" firstSheet="11" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="7950" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Menu (Admin)" sheetId="22" r:id="rId1"/>
     <sheet name="Menu (User)" sheetId="21" r:id="rId2"/>
-    <sheet name="CreateLeaveBonus" sheetId="19" r:id="rId3"/>
-    <sheet name="AddLeaveBonus (Admin)" sheetId="18" r:id="rId4"/>
-    <sheet name="CreateDataBeginYear" sheetId="17" r:id="rId5"/>
-    <sheet name="DataBeginYear (Admin)" sheetId="16" r:id="rId6"/>
-    <sheet name="CreateDayOff" sheetId="15" r:id="rId7"/>
-    <sheet name="DayOff (Admin)" sheetId="14" r:id="rId8"/>
-    <sheet name="UserSeniority (Admin)" sheetId="13" r:id="rId9"/>
-    <sheet name="UserSeniority" sheetId="12" r:id="rId10"/>
-    <sheet name="RequestChangeInout (Admin)" sheetId="11" r:id="rId11"/>
-    <sheet name="Register_RequestChangeInout" sheetId="10" r:id="rId12"/>
-    <sheet name="RequestChangeInout" sheetId="9" r:id="rId13"/>
-    <sheet name="List Leave Emp" sheetId="2" r:id="rId14"/>
-    <sheet name="List Leave Emp (Admin)" sheetId="6" r:id="rId15"/>
-    <sheet name="Register Leave" sheetId="1" r:id="rId16"/>
-    <sheet name="Leave Summary" sheetId="3" r:id="rId17"/>
-    <sheet name="Leave Summary (Admin)" sheetId="7" r:id="rId18"/>
-    <sheet name="Generate Leave Summary (Admin)" sheetId="8" r:id="rId19"/>
-    <sheet name="In-Out" sheetId="4" r:id="rId20"/>
-    <sheet name="In-Out (Admin" sheetId="20" r:id="rId21"/>
-    <sheet name="(Amin) Phép đầu năm" sheetId="5" r:id="rId22"/>
+    <sheet name="SumaryInout (Admin)" sheetId="23" r:id="rId3"/>
+    <sheet name="CreateLeaveBonus" sheetId="19" r:id="rId4"/>
+    <sheet name="AddLeaveBonus (Admin)" sheetId="18" r:id="rId5"/>
+    <sheet name="CreateDataBeginYear" sheetId="17" r:id="rId6"/>
+    <sheet name="DataBeginYear (Admin)" sheetId="16" r:id="rId7"/>
+    <sheet name="CreateDayOff" sheetId="15" r:id="rId8"/>
+    <sheet name="DayOff (Admin)" sheetId="14" r:id="rId9"/>
+    <sheet name="UserSeniority (Admin)" sheetId="13" r:id="rId10"/>
+    <sheet name="UserSeniority" sheetId="12" r:id="rId11"/>
+    <sheet name="RequestChangeInout (Admin)" sheetId="11" r:id="rId12"/>
+    <sheet name="Register_RequestChangeInout" sheetId="10" r:id="rId13"/>
+    <sheet name="RequestChangeInout" sheetId="9" r:id="rId14"/>
+    <sheet name="List Leave Emp" sheetId="2" r:id="rId15"/>
+    <sheet name="List Leave Emp (Admin)" sheetId="6" r:id="rId16"/>
+    <sheet name="Register Leave" sheetId="1" r:id="rId17"/>
+    <sheet name="Leave Summary" sheetId="3" r:id="rId18"/>
+    <sheet name="Leave Summary (Admin)" sheetId="7" r:id="rId19"/>
+    <sheet name="Generate Leave Summary (Admin)" sheetId="8" r:id="rId20"/>
+    <sheet name="In-Out" sheetId="4" r:id="rId21"/>
+    <sheet name="In-Out (Admin" sheetId="20" r:id="rId22"/>
+    <sheet name="(Amin) Phép đầu năm" sheetId="5" r:id="rId23"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -45,7 +46,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +64,20 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-SaveDataBeginYear(DataBeginYear dataInput, List&lt;int&gt; lstUid)</t>
+LeaveTotalMonthly.SaveLastTotalMonthly</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">LeaveTotalMonthly.ReCalculateTotalMonthlyAllYear
+</t>
         </r>
       </text>
     </comment>
@@ -72,6 +86,65 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="C8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RequestChangeInoutBase.GetRequestChangeInout</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <charset val="134"/>
+          </rPr>
+          <t>RequestChangeInoutBase.ApproveRequestChange</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+RequestChangeInoutBase.RejectRequestChange</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -103,7 +176,7 @@
 </comments>
 </file>
 
-<file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -153,7 +226,7 @@
 </comments>
 </file>
 
-<file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -203,7 +276,7 @@
 </comments>
 </file>
 
-<file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -254,7 +327,7 @@
 </comments>
 </file>
 
-<file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Microsoft Office User</author>
@@ -328,30 +401,6 @@
 </comments>
 </file>
 
-<file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-  </authors>
-  <commentList>
-    <comment ref="G5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">LeaveTotalMonthly.GetTotalMonthlyBeginYear(DateTime monthYear, List&lt;int&gt; lstUid)
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
@@ -377,6 +426,30 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="G5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">LeaveTotalMonthly.GetTotalMonthlyBeginYear(DateTime monthYear, List&lt;int&gt; lstUid)
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -413,43 +486,6 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">LeaveTotalMonthly.ReCalculateTotalMonthlyAllYear
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="L6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <charset val="134"/>
-          </rPr>
-          <t>InOutBase.MappingInoutLeave(DateTime DateStart, DateTime DateEnd, int uid)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M6" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">Sẽ gọi màn hình popup đăng ký Leave
 </t>
         </r>
       </text>
@@ -496,6 +532,75 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Admin</author>
+  </authors>
+  <commentList>
+    <comment ref="D11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>Admin:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+SaveDataBeginYear(DataBeginYear dataInput, List&lt;int&gt; lstUid)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Microsoft Office User</author>
+  </authors>
+  <commentList>
+    <comment ref="L6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <charset val="134"/>
+          </rPr>
+          <t>InOutBase.MappingInoutLeave(DateTime DateStart, DateTime DateEnd, int uid)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <rFont val="Calibri"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">Sẽ gọi màn hình popup đăng ký Leave
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -562,7 +667,7 @@
 </comments>
 </file>
 
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -594,7 +699,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -661,7 +766,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -693,7 +798,7 @@
 </comments>
 </file>
 
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -738,7 +843,7 @@
 </comments>
 </file>
 
-<file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -784,7 +889,7 @@
 </comments>
 </file>
 
-<file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Admin</author>
@@ -808,67 +913,8 @@
 </comments>
 </file>
 
-<file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Admin</author>
-    <author>Microsoft Office User</author>
-  </authors>
-  <commentList>
-    <comment ref="C8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RequestChangeInoutBase.GetRequestChangeInout</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D8" authorId="1" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="10"/>
-            <rFont val="Calibri"/>
-            <charset val="134"/>
-          </rPr>
-          <t>RequestChangeInoutBase.ApproveRequestChange</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F8" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>Admin:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-RequestChangeInoutBase.RejectRequestChange</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="161">
   <si>
     <t>Thông tin phép đầu năm</t>
   </si>
@@ -1239,15 +1285,9 @@
     <t>Error Datas</t>
   </si>
   <si>
-    <t xml:space="preserve">Tên nhân viên </t>
-  </si>
-  <si>
     <t>&lt;Control&gt;</t>
   </si>
   <si>
-    <t>Phép Đầu Năm</t>
-  </si>
-  <si>
     <t>Employee Information</t>
   </si>
   <si>
@@ -1284,9 +1324,6 @@
     <t>leave of Company</t>
   </si>
   <si>
-    <t>List Sumary Annual Laeve (Search, Canculate for Sumary Annual Leave)</t>
-  </si>
-  <si>
     <t>List Leave Company (Create, Update, View, Delete)</t>
   </si>
   <si>
@@ -1314,7 +1351,59 @@
     <t>List  Leave Bonus (Add, Update)</t>
   </si>
   <si>
-    <t>List  Leave Bonus (Add, Update, Auto Calculate)</t>
+    <t>Back to Menu</t>
+  </si>
+  <si>
+    <t>Back to me nu</t>
+  </si>
+  <si>
+    <t>Back To Menu</t>
+  </si>
+  <si>
+    <t>Sumary Inout (Admin)
+tính toán sumary Inout</t>
+  </si>
+  <si>
+    <t>DateStart</t>
+  </si>
+  <si>
+    <t>DateEnd</t>
+  </si>
+  <si>
+    <t>Lấy Dữ liệu máy chấm công</t>
+  </si>
+  <si>
+    <t>Tổng hợp Dữ liệu Inout</t>
+  </si>
+  <si>
+    <t>Back Menu</t>
+  </si>
+  <si>
+    <t>Back menu</t>
+  </si>
+  <si>
+    <t>Calculate Sumary Leave</t>
+  </si>
+  <si>
+    <t>List Sumary Annual Laeve (Search)</t>
+  </si>
+  <si>
+    <t>Nguyen văn A</t>
+  </si>
+  <si>
+    <t>Số Phép</t>
+  </si>
+  <si>
+    <t>Nguyen văn B</t>
+  </si>
+  <si>
+    <t>back menu</t>
+  </si>
+  <si>
+    <t>List  Seniority Bonus (Add, Update, Auto Calculate)</t>
+  </si>
+  <si>
+    <t>Menu (Admin)'!A1</t>
   </si>
 </sst>
 </file>
@@ -1385,7 +1474,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1401,6 +1490,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1764,7 +1859,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1845,6 +1940,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1905,12 +2004,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1919,6 +2012,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1929,10 +2028,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2209,11 +2315,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B21"/>
+  <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
@@ -2225,105 +2329,417 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="B5" t="s">
-        <v>133</v>
+      <c r="B5" s="63" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>128</v>
+      <c r="B7" s="63" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>134</v>
+      <c r="B8" s="92" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>138</v>
+      <c r="B11" s="63" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>136</v>
+      <c r="B13" s="63" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" t="s">
+      <c r="B14" s="63" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="B16" s="63" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="B18" s="63" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>143</v>
-      </c>
-    </row>
     <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>146</v>
+      <c r="A19" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>135</v>
+      <c r="B20" s="63" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="B21" t="s">
-        <v>137</v>
+      <c r="A21" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="B22" s="63" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" location="'List Leave Emp (Admin)'!A1" display="List All Employee Register leave (Approve, Reject)"/>
+    <hyperlink ref="B7" location="'In-Out (Admin'!A1" display="List Inout"/>
+    <hyperlink ref="B8" location="'SumaryInout (Admin)'!A1" display="Sumary InOut (GetData from Print device, Calculate Sumary InOut)"/>
+    <hyperlink ref="B11" location="'RequestChangeInout (Admin)'!A1" display="List Request Change Inout (Approve , Reject)"/>
+    <hyperlink ref="B13" location="'Leave Summary (Admin)'!A1" display="List Sumary Annual Laeve (Search, Canculate for Sumary Annual Leave)"/>
+    <hyperlink ref="B14" location="'Generate Leave Summary (Admin)'!A1" display="Calculate Sumary Leave"/>
+    <hyperlink ref="B16" location="'(Amin) Phép đầu năm'!A1" display="List Available Begin Year (Add, Update, Auto Calculate )"/>
+    <hyperlink ref="B18" location="'AddLeaveBonus (Admin)'!A1" display="List  Leave Bonus (Add, Update)"/>
+    <hyperlink ref="B20" location="'UserSeniority (Admin)'!A1" display="List  Leave Bonus (Add, Update, Auto Calculate)"/>
+    <hyperlink ref="B22" location="'DayOff (Admin)'!A1" display="List Leave Company (Create, Update, View, Delete)"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:R11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="11" width="7.375" customWidth="1"/>
+    <col min="12" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="8.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="B1" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="82"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="83"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="15"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="78"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="16"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="16"/>
+      <c r="R7" s="98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="38" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="K8" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="N8" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="O8" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="26">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="9">
+        <v>5</v>
+      </c>
+      <c r="F9" s="9">
+        <v>5</v>
+      </c>
+      <c r="G9" s="38">
+        <v>5</v>
+      </c>
+      <c r="H9" s="38">
+        <v>5</v>
+      </c>
+      <c r="I9" s="38">
+        <v>6</v>
+      </c>
+      <c r="J9" s="38">
+        <v>6</v>
+      </c>
+      <c r="K9" s="38">
+        <v>6</v>
+      </c>
+      <c r="L9" s="38">
+        <v>6</v>
+      </c>
+      <c r="M9" s="38">
+        <v>6</v>
+      </c>
+      <c r="N9" s="38">
+        <v>6</v>
+      </c>
+      <c r="O9" s="38">
+        <v>6</v>
+      </c>
+      <c r="P9" s="24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="6"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="16"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B1:P2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R7" location="'Menu (Admin)'!A1" display="'Menu (Admin)'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:P10"/>
   <sheetViews>
@@ -2344,40 +2760,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="80"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="82"/>
     </row>
     <row r="2" spans="2:16">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="81"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="83"/>
     </row>
     <row r="3" spans="2:16">
       <c r="B3" s="19"/>
@@ -2590,12 +3006,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2609,7 +3025,7 @@
     <col min="7" max="7" width="39.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="86" t="s">
         <v>56</v>
       </c>
@@ -2620,7 +3036,7 @@
       <c r="F1" s="86"/>
       <c r="G1" s="41"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="86"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -2629,7 +3045,7 @@
       <c r="F2" s="86"/>
       <c r="G2" s="41"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -2639,7 +3055,7 @@
       <c r="G3" s="36"/>
       <c r="H3" s="37"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
@@ -2651,14 +3067,14 @@
       <c r="G4" s="8"/>
       <c r="H4" s="28"/>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
@@ -2669,19 +3085,19 @@
       <c r="G5" s="28"/>
       <c r="H5" s="28"/>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="A6" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="76"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="8"/>
       <c r="H6" s="28"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="A7" s="29"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -2691,23 +3107,26 @@
       <c r="G7" s="8"/>
       <c r="H7" s="28"/>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9">
       <c r="A8" s="29"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="82" t="s">
+      <c r="D8" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="E8" s="82"/>
+      <c r="E8" s="87"/>
       <c r="F8" s="9" t="s">
         <v>62</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="63" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="29"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -2717,7 +3136,7 @@
       <c r="G9" s="8"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:9">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>17</v>
@@ -2725,10 +3144,10 @@
       <c r="C10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="9" t="s">
         <v>65</v>
       </c>
@@ -2739,7 +3158,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -2761,7 +3180,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -2783,7 +3202,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -2805,7 +3224,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" s="29"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2815,7 +3234,7 @@
       <c r="G14" s="8"/>
       <c r="H14" s="28"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -2836,17 +3255,20 @@
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I8" location="'Menu (Admin)'!A1" display="Back menu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2857,16 +3279,16 @@
     <col min="4" max="4" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="122.1" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
-    </row>
-    <row r="2" spans="1:7" ht="33" customHeight="1">
+    <row r="1" spans="1:8" ht="122.1" customHeight="1">
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
+    </row>
+    <row r="2" spans="1:8" ht="33" customHeight="1">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2875,18 +3297,21 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="18" customHeight="1">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" s="63" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="44" t="s">
         <v>77</v>
       </c>
@@ -2898,7 +3323,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="44" t="s">
         <v>78</v>
       </c>
@@ -2910,7 +3335,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="16"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="6"/>
       <c r="B6" s="8"/>
       <c r="C6" s="8"/>
@@ -2918,7 +3343,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="45" t="s">
         <v>1</v>
       </c>
@@ -2928,7 +3353,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="16"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="44" t="s">
         <v>34</v>
       </c>
@@ -2942,7 +3367,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="16"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="44" t="s">
         <v>35</v>
       </c>
@@ -2956,7 +3381,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="16"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="6"/>
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
@@ -2964,49 +3389,49 @@
       <c r="E10" s="8"/>
       <c r="F10" s="16"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="77"/>
-      <c r="C11" s="77"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="77"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
       <c r="F11" s="16"/>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="78"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="80"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="16"/>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="78"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="80"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="70"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="70"/>
       <c r="F13" s="16"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="78"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="80"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="16"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="78"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="80"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="16"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="6"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -3049,12 +3474,15 @@
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="A12:E15"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="H3" location="'Menu (User)'!A1" display="Back to Menu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -3119,10 +3547,10 @@
       <c r="A5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
@@ -3149,10 +3577,10 @@
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="82"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
@@ -3177,10 +3605,10 @@
       <c r="C9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="88" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="9" t="s">
         <v>65</v>
       </c>
@@ -3292,12 +3720,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3359,10 +3787,10 @@
       <c r="A5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
@@ -3391,10 +3819,10 @@
       <c r="C7" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="82" t="s">
+      <c r="D7" s="87" t="s">
         <v>80</v>
       </c>
-      <c r="E7" s="82"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="9" t="s">
         <v>16</v>
       </c>
@@ -3421,10 +3849,10 @@
       <c r="C9" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E9" s="64"/>
+      <c r="E9" s="66"/>
       <c r="F9" s="9" t="s">
         <v>35</v>
       </c>
@@ -3556,12 +3984,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -3575,7 +4003,7 @@
     <col min="7" max="7" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="86" t="s">
         <v>81</v>
       </c>
@@ -3586,7 +4014,7 @@
       <c r="F1" s="86"/>
       <c r="G1" s="86"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:11">
       <c r="A2" s="86"/>
       <c r="B2" s="86"/>
       <c r="C2" s="86"/>
@@ -3595,7 +4023,7 @@
       <c r="F2" s="86"/>
       <c r="G2" s="86"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:11">
       <c r="A3" s="35"/>
       <c r="B3" s="36"/>
       <c r="C3" s="36"/>
@@ -3606,7 +4034,7 @@
       <c r="H3" s="36"/>
       <c r="I3" s="37"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:11">
       <c r="A4" s="35" t="s">
         <v>57</v>
       </c>
@@ -3619,14 +4047,14 @@
       <c r="H4" s="8"/>
       <c r="I4" s="28"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="82" t="s">
+      <c r="B5" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="82"/>
+      <c r="C5" s="87"/>
       <c r="D5" s="9" t="s">
         <v>35</v>
       </c>
@@ -3638,7 +4066,7 @@
       <c r="H5" s="8"/>
       <c r="I5" s="28"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:11">
       <c r="A6" s="38" t="s">
         <v>85</v>
       </c>
@@ -3652,8 +4080,11 @@
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="28"/>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="K6" s="63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="29"/>
       <c r="B7" s="8"/>
       <c r="C7" s="8"/>
@@ -3664,21 +4095,21 @@
       <c r="H7" s="8"/>
       <c r="I7" s="28"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:11">
       <c r="A8" s="29"/>
       <c r="B8" s="8"/>
       <c r="F8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="87" t="s">
         <v>61</v>
       </c>
-      <c r="H8" s="82"/>
+      <c r="H8" s="87"/>
       <c r="I8" s="9" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:11">
       <c r="A9" s="29"/>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -3689,7 +4120,7 @@
       <c r="H9" s="8"/>
       <c r="I9" s="28"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:11">
       <c r="A10" s="9"/>
       <c r="B10" s="9" t="s">
         <v>17</v>
@@ -3697,10 +4128,10 @@
       <c r="C10" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="83" t="s">
+      <c r="D10" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="64"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="9" t="s">
         <v>35</v>
       </c>
@@ -3714,7 +4145,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="9" t="s">
         <v>22</v>
       </c>
@@ -3741,7 +4172,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
@@ -3768,7 +4199,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -3795,7 +4226,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:11">
       <c r="A14" s="29"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -3806,7 +4237,7 @@
       <c r="H14" s="8"/>
       <c r="I14" s="28"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:11">
       <c r="A15" s="32"/>
       <c r="B15" s="33"/>
       <c r="C15" s="33"/>
@@ -3827,12 +4258,15 @@
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="K6" location="'Menu (Admin)'!A1" display="Back to me nu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
@@ -3849,15 +4283,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="122.1" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="64" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:7" ht="33" customHeight="1">
       <c r="A2" s="2"/>
@@ -3872,11 +4306,11 @@
       <c r="A3" s="23"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="76" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="75"/>
-      <c r="F3" s="76"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="78"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
@@ -3989,44 +4423,44 @@
       <c r="A13" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
       <c r="F13" s="28"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="70" t="s">
         <v>94</v>
       </c>
-      <c r="B14" s="68"/>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="28"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="68"/>
-      <c r="B15" s="68"/>
-      <c r="C15" s="68"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="68"/>
+      <c r="A15" s="70"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
       <c r="F15" s="28"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="68"/>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
+      <c r="A16" s="70"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
       <c r="F16" s="28"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="68"/>
-      <c r="B17" s="68"/>
-      <c r="C17" s="68"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="68"/>
+      <c r="A17" s="70"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
       <c r="F17" s="28"/>
     </row>
     <row r="18" spans="1:6">
@@ -4077,12 +4511,190 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G13"/>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="3" width="12.375" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="B7" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G7" s="24" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="B8" s="20">
+        <v>1</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="20">
+        <v>1</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:G2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Menu (User)'!A1" display="Back to Menu"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4094,25 +4706,25 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="81"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -4120,7 +4732,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:9">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4128,11 +4740,11 @@
       <c r="F4" s="5"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="7">
         <v>2017</v>
       </c>
       <c r="D5" s="8"/>
@@ -4142,191 +4754,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+    <row r="6" spans="2:9">
+      <c r="B6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="8"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>95</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="24" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="20">
-        <v>1</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="24"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="20">
-        <v>1</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="20">
-        <v>1</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="24"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="6"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="16"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="13"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:G2"/>
-  </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="81"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-    </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4334,7 +4772,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8" s="25" t="s">
         <v>41</v>
       </c>
@@ -4354,7 +4792,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="20">
         <v>1</v>
       </c>
@@ -4367,8 +4805,11 @@
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="I9" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="20">
         <v>1</v>
       </c>
@@ -4382,7 +4823,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:9">
       <c r="B11" s="20">
         <v>1</v>
       </c>
@@ -4396,7 +4837,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:9">
       <c r="B12" s="20">
         <v>1</v>
       </c>
@@ -4410,7 +4851,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:9">
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4418,7 +4859,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -4431,17 +4872,95 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B1:G2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I9" location="'Menu (Admin)'!A1" display="Back Menu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B11"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.625" customWidth="1"/>
+    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="4" max="4" width="14.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="B5" s="63" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" s="63" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" s="63" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" s="63" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" location="'List Leave Emp'!A1" display="List Register leave (Register, Delete)"/>
+    <hyperlink ref="B7" location="'In-Out'!A1" display="List Inout"/>
+    <hyperlink ref="B9" location="Register_RequestChangeInout!A1" display="List Request Change Inout (Register, Delete)"/>
+    <hyperlink ref="B11" location="'Leave Summary'!A1" display="List Sumary Annual Laeve"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4454,25 +4973,25 @@
     <col min="7" max="7" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="87" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="89" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="81"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -4480,7 +4999,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:9">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -4488,7 +5007,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="20" t="s">
         <v>102</v>
       </c>
@@ -4500,17 +5019,17 @@
       <c r="F5" s="8"/>
       <c r="G5" s="16"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="76"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="78"/>
       <c r="F6" s="8"/>
       <c r="G6" s="16"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -4518,7 +5037,7 @@
       <c r="F7" s="8"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8" s="6"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
@@ -4526,7 +5045,7 @@
       <c r="F8" s="8"/>
       <c r="G8" s="16"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="6"/>
       <c r="C9" s="21" t="s">
         <v>104</v>
@@ -4538,15 +5057,18 @@
       <c r="F9" s="8"/>
       <c r="G9" s="16"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="2:9">
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
       <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7">
+      <c r="I10" s="63" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9">
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -4554,7 +5076,7 @@
       <c r="F11" s="8"/>
       <c r="G11" s="16"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:9">
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -4562,7 +5084,7 @@
       <c r="F12" s="8"/>
       <c r="G12" s="16"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:9">
       <c r="B13" s="6"/>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -4570,7 +5092,7 @@
       <c r="F13" s="8"/>
       <c r="G13" s="16"/>
     </row>
-    <row r="14" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -4583,92 +5105,253 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="B1:G2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I10" location="'Menu (Admin)'!A1" display="Back Menu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:B11"/>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N12"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+    <col min="6" max="7" width="12.875" customWidth="1"/>
+    <col min="8" max="8" width="10.125" customWidth="1"/>
+    <col min="9" max="9" width="9.375" customWidth="1"/>
+    <col min="10" max="10" width="11.375" customWidth="1"/>
+    <col min="13" max="13" width="12.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="B3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="B5" s="91" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>131</v>
-      </c>
+    <row r="1" spans="1:14">
+      <c r="A1" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="B1" s="90" t="s">
+        <v>106</v>
+      </c>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1">
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="4"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="15"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="6"/>
+      <c r="C5" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="6"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="6"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="6"/>
+      <c r="C8" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="6"/>
+      <c r="C9" s="9">
+        <v>1</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" s="60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.375</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="16"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="6"/>
+      <c r="C10" s="11">
+        <v>1</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="F10" s="12">
+        <v>0.375</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="16"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="6"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="16"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="17"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F2"/>
+  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B5" location="'List Leave Emp'!A1" display="List Register leave (Register, Delete)"/>
+    <hyperlink ref="A1" location="'Menu (User)'!A1" display="Back to Menu"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N12"/>
+  <dimension ref="B1:N14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P10" sqref="P10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -4682,20 +5365,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14">
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="90" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
     </row>
     <row r="2" spans="2:14" ht="30" customHeight="1">
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="4"/>
@@ -4714,14 +5397,14 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="6"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="9"/>
+      <c r="F5" s="7"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8"/>
@@ -4733,12 +5416,14 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="6"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="C6" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
       <c r="K6" s="8"/>
@@ -4746,7 +5431,7 @@
         <v>14</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="N6" s="16"/>
     </row>
@@ -4882,302 +5567,335 @@
       <c r="M12" s="14"/>
       <c r="N12" s="17"/>
     </row>
+    <row r="14" spans="2:14">
+      <c r="E14" s="63" t="s">
+        <v>145</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
+    <mergeCell ref="D6:H6"/>
     <mergeCell ref="B1:F2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E14" location="'Menu (Admin)'!A1" display="Back To Menu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N12"/>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
+    <col min="3" max="3" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="88" t="s">
-        <v>106</v>
-      </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-    </row>
-    <row r="2" spans="2:14" ht="30" customHeight="1">
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-    </row>
-    <row r="4" spans="2:14">
+    <row r="1" spans="1:8" ht="16.5" thickBot="1"/>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="6"/>
+      <c r="B3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="95"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="9">
+        <v>2017</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="6"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="6"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="96" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="96" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="6"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="97" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="6"/>
+      <c r="B8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="E8" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F8" s="9">
+        <v>96</v>
+      </c>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="6"/>
+      <c r="B9" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="9">
+        <v>2017</v>
+      </c>
+      <c r="F9" s="9">
+        <v>96</v>
+      </c>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="17"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H7" location="'Menu (Admin)'!A1" display="Back menu"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="14.625" customWidth="1"/>
+    <col min="6" max="6" width="11.375" customWidth="1"/>
+    <col min="7" max="7" width="13.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="89" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B3" s="62"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="15"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="16"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="6"/>
-      <c r="C6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="N6" s="16"/>
-    </row>
-    <row r="7" spans="2:14">
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="B5" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="47">
+        <v>43086</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="B6" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C6" s="54">
+        <v>43086</v>
+      </c>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7">
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="16"/>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="B8" s="6"/>
-      <c r="C8" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N8" s="16"/>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7">
       <c r="B9" s="6"/>
-      <c r="C9" s="9">
-        <v>1</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E9" s="60" t="s">
-        <v>118</v>
-      </c>
-      <c r="F9" s="10">
-        <v>0.375</v>
-      </c>
-      <c r="G9" s="10">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="16"/>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="C9" s="93" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="94" t="s">
+        <v>150</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="B10" s="6"/>
-      <c r="C10" s="11">
-        <v>1</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E10" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0.375</v>
-      </c>
-      <c r="G10" s="12">
-        <v>0.70833333333333304</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="16"/>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="C10" s="93"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="16"/>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="17"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="B12" s="6"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="16"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="B13" s="6"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1">
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:H6"/>
-    <mergeCell ref="B1:F2"/>
+  <mergeCells count="3">
+    <mergeCell ref="B1:G2"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Menu (Admin)'!A1" display="Back Menu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="90" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B3:G3"/>
-  </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
@@ -5194,13 +5912,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="122.1" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="2"/>
@@ -5215,11 +5933,11 @@
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9">
@@ -5248,10 +5966,10 @@
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:9">
@@ -5275,19 +5993,19 @@
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="68"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="A9" s="70"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="68"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="70"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:9">
@@ -5333,12 +6051,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:H12"/>
+  <dimension ref="C1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5350,30 +6068,30 @@
     <col min="8" max="8" width="12.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:8">
-      <c r="C1" s="70" t="s">
+    <row r="1" spans="3:10">
+      <c r="C1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-    </row>
-    <row r="2" spans="3:8">
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-    </row>
-    <row r="3" spans="3:8">
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="3:10">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="3:10">
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
       <c r="E3" s="19"/>
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="3:8">
+    <row r="4" spans="3:10">
       <c r="C4" s="4"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -5381,7 +6099,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="15"/>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:10">
       <c r="C5" s="7" t="s">
         <v>11</v>
       </c>
@@ -5397,17 +6115,17 @@
       <c r="G5" s="55"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:10">
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:10">
       <c r="C7" s="6"/>
       <c r="D7" s="8"/>
       <c r="F7" s="9" t="s">
@@ -5420,7 +6138,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:10">
       <c r="C8" s="6"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -5428,7 +6146,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="3:8">
+    <row r="9" spans="3:10">
       <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
         <v>17</v>
@@ -5445,8 +6163,11 @@
       <c r="H9" s="56" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="3:8">
+      <c r="J9" s="63" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="3:10">
       <c r="C10" s="9" t="s">
         <v>22</v>
       </c>
@@ -5466,7 +6187,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:10">
       <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
@@ -5476,7 +6197,7 @@
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:10">
       <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
@@ -5491,12 +6212,15 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C1:G2"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="J9" location="'Menu (Admin)'!A1" display="back menu"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
@@ -5513,13 +6237,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="122.1" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="2"/>
@@ -5534,11 +6258,11 @@
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9">
@@ -5567,10 +6291,10 @@
       <c r="A6" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="68"/>
-      <c r="C6" s="68"/>
-      <c r="D6" s="68"/>
-      <c r="E6" s="68"/>
+      <c r="B6" s="70"/>
+      <c r="C6" s="70"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="70"/>
       <c r="F6" s="16"/>
     </row>
     <row r="7" spans="1:9">
@@ -5633,7 +6357,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G12"/>
   <sheetViews>
@@ -5650,20 +6374,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
     </row>
     <row r="2" spans="3:7">
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="3:7">
       <c r="C3" s="19"/>
@@ -5694,10 +6418,10 @@
       <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="74"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="78"/>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="6"/>
@@ -5779,7 +6503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
@@ -5796,13 +6520,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="122.1" customHeight="1">
-      <c r="A1" s="62"/>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="64"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="2"/>
@@ -5817,11 +6541,11 @@
       <c r="A3" s="42"/>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="69"/>
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:9">
@@ -5866,42 +6590,42 @@
       <c r="A8" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="77"/>
+      <c r="B8" s="79"/>
+      <c r="C8" s="79"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
       <c r="F8" s="16"/>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="78"/>
-      <c r="B9" s="68"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
+      <c r="A9" s="80"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="70"/>
       <c r="F9" s="16"/>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="78"/>
-      <c r="B10" s="68"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="70"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="16"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="78"/>
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
+      <c r="A11" s="80"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
       <c r="F11" s="16"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="78"/>
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
+      <c r="A12" s="80"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="70"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="70"/>
       <c r="F12" s="16"/>
     </row>
     <row r="13" spans="1:9">
@@ -5955,12 +6679,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G11"/>
+  <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -5972,25 +6696,25 @@
     <col min="7" max="7" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="70" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="80"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="81"/>
-    </row>
-    <row r="3" spans="2:7">
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="82"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="83"/>
+    </row>
+    <row r="3" spans="2:9">
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
       <c r="D3" s="19"/>
@@ -5998,7 +6722,7 @@
       <c r="F3" s="19"/>
       <c r="G3" s="19"/>
     </row>
-    <row r="4" spans="2:7">
+    <row r="4" spans="2:9">
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
@@ -6006,7 +6730,7 @@
       <c r="F4" s="5"/>
       <c r="G4" s="15"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="2:9">
       <c r="B5" s="20" t="s">
         <v>34</v>
       </c>
@@ -6021,8 +6745,11 @@
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="2:7">
+      <c r="I5" s="98" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9">
       <c r="B6" s="6"/>
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
@@ -6036,7 +6763,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="6"/>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
@@ -6044,31 +6771,31 @@
       <c r="F7" s="8"/>
       <c r="G7" s="16"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="74" t="s">
+      <c r="C8" s="76" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="79"/>
-    </row>
-    <row r="9" spans="2:7">
+      <c r="D8" s="77"/>
+      <c r="E8" s="77"/>
+      <c r="F8" s="77"/>
+      <c r="G8" s="81"/>
+    </row>
+    <row r="9" spans="2:9">
       <c r="B9" s="50">
         <v>42855</v>
       </c>
-      <c r="C9" s="74" t="s">
+      <c r="C9" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="79"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="D9" s="77"/>
+      <c r="E9" s="77"/>
+      <c r="F9" s="77"/>
+      <c r="G9" s="81"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="6"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
@@ -6076,7 +6803,7 @@
       <c r="F10" s="8"/>
       <c r="G10" s="16"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:9">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -6090,295 +6817,9 @@
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="B1:G2"/>
   </mergeCells>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:P11"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="11" width="7.375" customWidth="1"/>
-    <col min="12" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="70" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="80"/>
-    </row>
-    <row r="2" spans="2:16">
-      <c r="B2" s="72"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
-      <c r="P2" s="81"/>
-    </row>
-    <row r="3" spans="2:16">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="19"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="4"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="15"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="7">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="16"/>
-    </row>
-    <row r="7" spans="2:16">
-      <c r="B7" s="6"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="16"/>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I8" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="J8" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="K8" s="38" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="N8" s="38" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="P8" s="24" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="20">
-        <v>1</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" s="26">
-        <v>2017</v>
-      </c>
-      <c r="E9" s="9">
-        <v>5</v>
-      </c>
-      <c r="F9" s="9">
-        <v>5</v>
-      </c>
-      <c r="G9" s="38">
-        <v>5</v>
-      </c>
-      <c r="H9" s="38">
-        <v>5</v>
-      </c>
-      <c r="I9" s="38">
-        <v>6</v>
-      </c>
-      <c r="J9" s="38">
-        <v>6</v>
-      </c>
-      <c r="K9" s="38">
-        <v>6</v>
-      </c>
-      <c r="L9" s="38">
-        <v>6</v>
-      </c>
-      <c r="M9" s="38">
-        <v>6</v>
-      </c>
-      <c r="N9" s="38">
-        <v>6</v>
-      </c>
-      <c r="O9" s="38">
-        <v>6</v>
-      </c>
-      <c r="P9" s="24">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="6"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="16"/>
-    </row>
-    <row r="11" spans="2:16">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B1:P2"/>
-  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="I5" location="'Menu (Admin)'!A1" display="'Menu (Admin)'!A1"/>
+  </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>

--- a/Document/Layout Manager Leave.xlsx
+++ b/Document/Layout Manager Leave.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\Project\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370" tabRatio="500" firstSheet="14" activeTab="16"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" tabRatio="500" firstSheet="14" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="Menu (Admin)" sheetId="22" r:id="rId1"/>
@@ -41,7 +46,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +92,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D8" authorId="1">
+    <comment ref="D8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +150,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D17" authorId="0">
+    <comment ref="D17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -178,7 +183,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -191,7 +196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1">
+    <comment ref="D7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -228,7 +233,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D7" authorId="1">
+    <comment ref="D7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -254,7 +259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="1">
+    <comment ref="F7" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -278,7 +283,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="F8" authorId="0">
+    <comment ref="F8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G8" authorId="1">
+    <comment ref="G8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -304,7 +309,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="1">
+    <comment ref="I8" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +334,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="A8" authorId="0">
+    <comment ref="A8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -338,12 +343,12 @@
             <rFont val="Calibri"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">nếu click Trong Ngày thì Disable ô D8
+          <t xml:space="preserve">nếu click Trong Ngày thì Disable ô D9 (tu dong nhay ngay theo o D8)
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="A9" authorId="0">
+    <comment ref="A9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -365,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -379,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D19" authorId="1">
+    <comment ref="D19" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -402,7 +407,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +431,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="G5" authorId="0">
+    <comment ref="G5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +455,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -472,7 +477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="E9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -495,7 +500,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -508,7 +513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -532,7 +537,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -564,7 +569,7 @@
     <author>Microsoft Office User</author>
   </authors>
   <commentList>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -577,7 +582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M6" authorId="0">
+    <comment ref="M6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -601,7 +606,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -614,7 +619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -636,7 +641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H7" authorId="0">
+    <comment ref="H7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -668,7 +673,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D9" authorId="0">
+    <comment ref="D9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -700,7 +705,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0">
+    <comment ref="E7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -713,7 +718,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F7" authorId="0">
+    <comment ref="F7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -735,7 +740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G7" authorId="0">
+    <comment ref="G7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -767,7 +772,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="D14" authorId="0">
+    <comment ref="D14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +804,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="E6" authorId="0">
+    <comment ref="E6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -812,7 +817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -844,7 +849,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="O5" authorId="0">
+    <comment ref="O5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -858,7 +863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P5" authorId="0">
+    <comment ref="P5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -890,7 +895,7 @@
     <author>Admin</author>
   </authors>
   <commentList>
-    <comment ref="P5" authorId="0">
+    <comment ref="P5" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -909,7 +914,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="161">
   <si>
     <t>Employee Information</t>
   </si>
@@ -1404,18 +1409,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1423,14 +1422,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1438,7 +1437,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1446,155 +1445,45 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="10"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1603,13 +1492,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399945066682943"/>
+        <fgColor theme="4" tint="0.39991454817346722"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,194 +1508,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2158,253 +1861,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="36" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="38" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="35" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2417,7 +1881,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
@@ -2428,14 +1892,76 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2454,27 +1980,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2483,44 +1988,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2531,98 +1998,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1" quotePrefix="1"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2880,123 +2316,121 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B22"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="23" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="23" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" s="87" t="s">
+    <row r="8" spans="1:2">
+      <c r="B8" s="63" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="22" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:2">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" s="22" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="23" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" s="22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="2:2">
-      <c r="B16" s="23" t="s">
+    <row r="16" spans="1:2">
+      <c r="B16" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="23" t="s">
+    <row r="18" spans="1:2">
+      <c r="B18" s="22" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="1:2">
+      <c r="B20" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="1:2">
+      <c r="B22" s="22" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3013,84 +2447,377 @@
     <hyperlink ref="B20" location="'UserSeniority (Admin)'!A1" display="List  Seniority Bonus (Add, Update, Auto Calculate)"/>
     <hyperlink ref="B22" location="'DayOff (Admin)'!A1" display="List Leave Company (Create, Update, View, Delete)"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:R11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="11" width="7.375" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="11" width="7.33203125" customWidth="1"/>
     <col min="12" max="13" width="7" customWidth="1"/>
     <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:18">
+      <c r="B1" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73"/>
+    </row>
+    <row r="2" spans="2:18">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+    </row>
+    <row r="4" spans="2:18">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="B5" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" s="18">
+        <v>2017</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="P5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="H6" s="87"/>
+      <c r="I6" s="87"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="10"/>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="10"/>
+      <c r="R7" s="65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H8" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" s="45" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="26">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="32">
+        <v>2017</v>
+      </c>
+      <c r="E9" s="5">
+        <v>5</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+      <c r="G9" s="45">
+        <v>5</v>
+      </c>
+      <c r="H9" s="45">
+        <v>5</v>
+      </c>
+      <c r="I9" s="45">
+        <v>6</v>
+      </c>
+      <c r="J9" s="45">
+        <v>6</v>
+      </c>
+      <c r="K9" s="45">
+        <v>6</v>
+      </c>
+      <c r="L9" s="45">
+        <v>6</v>
+      </c>
+      <c r="M9" s="45">
+        <v>6</v>
+      </c>
+      <c r="N9" s="45">
+        <v>6</v>
+      </c>
+      <c r="O9" s="45">
+        <v>6</v>
+      </c>
+      <c r="P9" s="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="4"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="10"/>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="B1:P2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="R7" location="'Menu (Admin)'!A1" display="Menu (Admin)'!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:P10"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="11" width="7.33203125" customWidth="1"/>
+    <col min="12" max="13" width="7" customWidth="1"/>
+    <col min="14" max="14" width="8" customWidth="1"/>
+    <col min="15" max="15" width="7.88671875" customWidth="1"/>
+    <col min="16" max="16" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16">
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
+      <c r="P1" s="73"/>
     </row>
     <row r="2" spans="2:16">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:16">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76"/>
+    </row>
+    <row r="3" spans="2:16">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
     </row>
     <row r="4" spans="2:16">
       <c r="B4" s="1"/>
@@ -3110,304 +2837,7 @@
       <c r="P4" s="3"/>
     </row>
     <row r="5" spans="2:16">
-      <c r="B5" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="18">
-        <v>2017</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="59" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="2:16">
-      <c r="B6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="10"/>
-    </row>
-    <row r="7" spans="2:18">
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-      <c r="P7" s="10"/>
-      <c r="R7" s="89" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="2:16">
-      <c r="B8" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="G8" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="H8" s="59" t="s">
-        <v>78</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>79</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="59" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="39" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="B9" s="32">
-        <v>1</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D9" s="41">
-        <v>2017</v>
-      </c>
-      <c r="E9" s="5">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="59">
-        <v>5</v>
-      </c>
-      <c r="H9" s="59">
-        <v>5</v>
-      </c>
-      <c r="I9" s="59">
-        <v>6</v>
-      </c>
-      <c r="J9" s="59">
-        <v>6</v>
-      </c>
-      <c r="K9" s="59">
-        <v>6</v>
-      </c>
-      <c r="L9" s="59">
-        <v>6</v>
-      </c>
-      <c r="M9" s="59">
-        <v>6</v>
-      </c>
-      <c r="N9" s="59">
-        <v>6</v>
-      </c>
-      <c r="O9" s="59">
-        <v>6</v>
-      </c>
-      <c r="P9" s="39">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="2:16">
-      <c r="B10" s="4"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-      <c r="P10" s="10"/>
-    </row>
-    <row r="11" ht="16.5" spans="2:16">
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="B1:P2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="R7" location="'Menu (Admin)'!A1" display="Menu (Admin)'!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:P10"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="11" width="7.375" customWidth="1"/>
-    <col min="12" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="8" customWidth="1"/>
-    <col min="15" max="15" width="7.875" customWidth="1"/>
-    <col min="16" max="16" width="8.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:16">
-      <c r="B1" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="27"/>
-    </row>
-    <row r="2" spans="2:16">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:16">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-    </row>
-    <row r="4" spans="2:16">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="3"/>
-    </row>
-    <row r="5" spans="2:16">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="5">
@@ -3425,7 +2855,7 @@
       <c r="M5" s="9"/>
       <c r="N5" s="9"/>
       <c r="O5" s="9"/>
-      <c r="P5" s="39" t="s">
+      <c r="P5" s="30" t="s">
         <v>44</v>
       </c>
     </row>
@@ -3447,13 +2877,13 @@
       <c r="P6" s="10"/>
     </row>
     <row r="7" spans="2:16">
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="32" t="s">
         <v>58</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -3462,45 +2892,45 @@
       <c r="F7" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G7" s="59" t="s">
+      <c r="G7" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="59" t="s">
+      <c r="H7" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="I7" s="59" t="s">
+      <c r="I7" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="J7" s="59" t="s">
+      <c r="J7" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="59" t="s">
+      <c r="K7" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="L7" s="59" t="s">
+      <c r="L7" s="45" t="s">
         <v>82</v>
       </c>
-      <c r="M7" s="59" t="s">
+      <c r="M7" s="45" t="s">
         <v>83</v>
       </c>
-      <c r="N7" s="59" t="s">
+      <c r="N7" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="O7" s="59" t="s">
+      <c r="O7" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="P7" s="39" t="s">
+      <c r="P7" s="30" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="8" spans="2:16">
-      <c r="B8" s="32">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="41">
+      <c r="D8" s="32">
         <v>2017</v>
       </c>
       <c r="E8" s="5">
@@ -3509,34 +2939,34 @@
       <c r="F8" s="5">
         <v>5</v>
       </c>
-      <c r="G8" s="59">
+      <c r="G8" s="45">
         <v>5</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="45">
         <v>5</v>
       </c>
-      <c r="I8" s="59">
+      <c r="I8" s="45">
         <v>6</v>
       </c>
-      <c r="J8" s="59">
+      <c r="J8" s="45">
         <v>6</v>
       </c>
-      <c r="K8" s="59">
+      <c r="K8" s="45">
         <v>6</v>
       </c>
-      <c r="L8" s="59">
+      <c r="L8" s="45">
         <v>6</v>
       </c>
-      <c r="M8" s="59">
+      <c r="M8" s="45">
         <v>6</v>
       </c>
-      <c r="N8" s="59">
+      <c r="N8" s="45">
         <v>6</v>
       </c>
-      <c r="O8" s="59">
+      <c r="O8" s="45">
         <v>6</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="30">
         <v>6</v>
       </c>
     </row>
@@ -3557,7 +2987,7 @@
       <c r="O9" s="9"/>
       <c r="P9" s="10"/>
     </row>
-    <row r="10" ht="16.5" spans="2:16">
+    <row r="10" spans="2:16">
       <c r="B10" s="13"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -3578,82 +3008,80 @@
   <mergeCells count="1">
     <mergeCell ref="B1:P2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="64"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="64"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="55" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="47"/>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" s="35"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
@@ -3661,61 +3089,61 @@
         <v>92</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="48" t="s">
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="86"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="88"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="47"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="48"/>
+      <c r="H6" s="35"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="47"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="48"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="9"/>
       <c r="C8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="E8" s="58"/>
+      <c r="E8" s="92"/>
       <c r="F8" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="23" t="s">
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="36"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="47"/>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" s="35"/>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>47</v>
@@ -3723,10 +3151,10 @@
       <c r="C10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="5" t="s">
         <v>98</v>
       </c>
@@ -3737,7 +3165,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -3747,19 +3175,19 @@
       <c r="C11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="91" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -3769,19 +3197,19 @@
       <c r="C12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="91" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -3791,85 +3219,83 @@
       <c r="C13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="91" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="G13" s="63"/>
+      <c r="G13" s="47"/>
       <c r="H13" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:9">
+      <c r="A14" s="36"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="47"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="H14" s="35"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:F2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I8" location="'Menu (Admin)'!A1" display="Back menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    <row r="1" spans="1:8" ht="122.1" customHeight="1">
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:8" ht="33" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -3878,22 +3304,22 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:8">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+    <row r="3" spans="1:8" ht="18" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="23" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="22" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="70" t="s">
+    <row r="4" spans="1:8" ht="15.75">
+      <c r="A4" s="51" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -3904,8 +3330,8 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="70" t="s">
+    <row r="5" spans="1:8" ht="15.75">
+      <c r="A5" s="51" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="5">
@@ -3916,7 +3342,7 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -3924,8 +3350,8 @@
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="71" t="s">
+    <row r="7" spans="1:8" ht="15.75">
+      <c r="A7" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="9"/>
@@ -3934,8 +3360,8 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="70" t="s">
+    <row r="8" spans="1:8" ht="15.75">
+      <c r="A8" s="51" t="s">
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3948,8 +3374,8 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="70" t="s">
+    <row r="9" spans="1:8" ht="15.75">
+      <c r="A9" s="51" t="s">
         <v>66</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3962,7 +3388,7 @@
       <c r="E9" s="9"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:8">
       <c r="A10" s="4"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3970,49 +3396,49 @@
       <c r="E10" s="9"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="72" t="s">
+    <row r="11" spans="1:8" ht="15.75">
+      <c r="A11" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="73"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+    <row r="12" spans="1:8">
+      <c r="A12" s="90"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="73"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+    <row r="13" spans="1:8">
+      <c r="A13" s="90"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="73"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+    <row r="14" spans="1:8">
+      <c r="A14" s="90"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="73"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+    <row r="15" spans="1:8">
+      <c r="A15" s="90"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:8">
       <c r="A16" s="4"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -4020,14 +3446,14 @@
       <c r="E16" s="9"/>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" ht="15.75">
       <c r="A17" s="4"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="46" t="s">
+      <c r="D17" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="46" t="s">
+      <c r="E17" s="34" t="s">
         <v>38</v>
       </c>
       <c r="F17" s="10"/>
@@ -4040,7 +3466,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="10"/>
     </row>
-    <row r="19" ht="16.5" spans="1:6">
+    <row r="19" spans="1:6">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="14"/>
@@ -4058,82 +3484,80 @@
   <hyperlinks>
     <hyperlink ref="H3" location="'Menu (User)'!A1" display="Back to Menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="39.125" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="64"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="64"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="48"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="57"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="47"/>
+      <c r="H4" s="35"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
@@ -4141,44 +3565,44 @@
         <v>92</v>
       </c>
       <c r="F5" s="5"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="48"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="47"/>
+      <c r="H6" s="35"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="48"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="48"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="47"/>
+      <c r="H8" s="35"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5"/>
@@ -4188,10 +3612,10 @@
       <c r="C9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="93" t="s">
         <v>97</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="5" t="s">
         <v>98</v>
       </c>
@@ -4212,14 +3636,14 @@
       <c r="C10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="91" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="G10" s="63"/>
+      <c r="G10" s="47"/>
       <c r="H10" s="5" t="s">
         <v>103</v>
       </c>
@@ -4234,14 +3658,14 @@
       <c r="C11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="91" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="G11" s="63"/>
+      <c r="G11" s="47"/>
       <c r="H11" s="5" t="s">
         <v>106</v>
       </c>
@@ -4256,126 +3680,124 @@
       <c r="C12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="91" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="G12" s="63"/>
+      <c r="G12" s="47"/>
       <c r="H12" s="5" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="48"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="47"/>
+      <c r="H13" s="35"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:F2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:F2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:G2"/>
+      <selection sqref="A1:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="47"/>
+      <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
@@ -4385,10 +3807,10 @@
       <c r="F5" s="5"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="47"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="48"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -4396,27 +3818,27 @@
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="47"/>
+      <c r="I6" s="35"/>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="48"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="58" t="s">
+      <c r="D7" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="58"/>
+      <c r="E7" s="92"/>
       <c r="F7" s="5" t="s">
         <v>46</v>
       </c>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="47"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="48"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -4424,7 +3846,7 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9"/>
-      <c r="I8" s="47"/>
+      <c r="I8" s="35"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5"/>
@@ -4434,10 +3856,10 @@
       <c r="C9" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D9" s="61" t="s">
+      <c r="D9" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="44"/>
+      <c r="E9" s="79"/>
       <c r="F9" s="5" t="s">
         <v>66</v>
       </c>
@@ -4461,11 +3883,11 @@
       <c r="C10" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="90" t="s">
+      <c r="D10" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="91" t="s">
+      <c r="E10" s="95"/>
+      <c r="F10" s="66" t="s">
         <v>102</v>
       </c>
       <c r="G10" s="5" t="s">
@@ -4488,11 +3910,11 @@
       <c r="C11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="91" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="66" t="s">
         <v>105</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -4515,11 +3937,11 @@
       <c r="C12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="91" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="66" t="s">
         <v>108</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -4533,7 +3955,7 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="48"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -4541,107 +3963,105 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
-      <c r="I13" s="47"/>
+      <c r="I13" s="35"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="51"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="53"/>
+      <c r="A14" s="39"/>
+      <c r="B14" s="40"/>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A1:G2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="9.375" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
-    <col min="4" max="4" width="5.875" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="54" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="96" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="54"/>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="55"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="56"/>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="55" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="96"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="96"/>
+      <c r="D2" s="96"/>
+      <c r="E2" s="96"/>
+      <c r="F2" s="96"/>
+      <c r="G2" s="96"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="42"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="44"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="44"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="47"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="I4" s="35"/>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="5" t="s">
         <v>66</v>
       </c>
@@ -4651,28 +4071,28 @@
       <c r="F5" s="5"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="47"/>
+      <c r="I5" s="35"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="45" t="s">
         <v>119</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="59" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="45" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="41"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="32"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9"/>
-      <c r="I6" s="47"/>
-      <c r="K6" s="23" t="s">
+      <c r="I6" s="35"/>
+      <c r="K6" s="22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="48"/>
+    <row r="7" spans="1:11">
+      <c r="A7" s="36"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -4680,24 +4100,24 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9"/>
-      <c r="I7" s="47"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="48"/>
+      <c r="I7" s="35"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="36"/>
       <c r="B8" s="9"/>
       <c r="F8" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="58" t="s">
+      <c r="G8" s="92" t="s">
         <v>93</v>
       </c>
-      <c r="H8" s="58"/>
+      <c r="H8" s="92"/>
       <c r="I8" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="48"/>
+    <row r="9" spans="1:11">
+      <c r="A9" s="36"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -4705,9 +4125,9 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="47"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="35"/>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5"/>
       <c r="B10" s="5" t="s">
         <v>47</v>
@@ -4715,10 +4135,10 @@
       <c r="C10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="61" t="s">
+      <c r="D10" s="93" t="s">
         <v>65</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="79"/>
       <c r="F10" s="5" t="s">
         <v>66</v>
       </c>
@@ -4732,7 +4152,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:11">
       <c r="A11" s="5" t="s">
         <v>53</v>
       </c>
@@ -4742,11 +4162,11 @@
       <c r="C11" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D11" s="90" t="s">
+      <c r="D11" s="94" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="62"/>
-      <c r="F11" s="91" t="s">
+      <c r="E11" s="95"/>
+      <c r="F11" s="66" t="s">
         <v>102</v>
       </c>
       <c r="G11" s="5" t="s">
@@ -4759,7 +4179,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:11">
       <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
@@ -4769,11 +4189,11 @@
       <c r="C12" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D12" s="90" t="s">
+      <c r="D12" s="94" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="62"/>
-      <c r="F12" s="91" t="s">
+      <c r="E12" s="95"/>
+      <c r="F12" s="66" t="s">
         <v>105</v>
       </c>
       <c r="G12" s="5" t="s">
@@ -4786,7 +4206,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:11">
       <c r="A13" s="5" t="s">
         <v>53</v>
       </c>
@@ -4796,11 +4216,11 @@
       <c r="C13" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="90" t="s">
+      <c r="D13" s="94" t="s">
         <v>107</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="91" t="s">
+      <c r="E13" s="95"/>
+      <c r="F13" s="66" t="s">
         <v>108</v>
       </c>
       <c r="G13" s="5" t="s">
@@ -4813,8 +4233,8 @@
         <v>109</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="48"/>
+    <row r="14" spans="1:11">
+      <c r="A14" s="36"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -4822,67 +4242,65 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
-      <c r="I14" s="47"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="51"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="I14" s="35"/>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="39"/>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A1:G2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="G8:H8"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A1:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K6" location="'Menu (Admin)'!A1" display="Back to me nu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="L118" sqref="L118"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:12" ht="122.1" customHeight="1">
+      <c r="A1" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:12" ht="33" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -4891,19 +4309,19 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="38"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="33" t="s">
+    <row r="3" spans="1:12" ht="18" customHeight="1">
+      <c r="A3" s="29"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="86" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="34"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="46" t="s">
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75">
+      <c r="A4" s="34" t="s">
         <v>111</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -4912,10 +4330,10 @@
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
-      <c r="F4" s="47"/>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="46" t="s">
+      <c r="F4" s="35"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75">
+      <c r="A5" s="34" t="s">
         <v>112</v>
       </c>
       <c r="B5" s="5">
@@ -4924,32 +4342,32 @@
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="47"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="48"/>
+      <c r="F5" s="35"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="36"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
-      <c r="F6" s="47"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="49" t="s">
+      <c r="F6" s="35"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75">
+      <c r="A7" s="37" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="47"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="48" t="s">
+      <c r="F7" s="35"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75">
+      <c r="A8" s="36" t="s">
         <v>124</v>
       </c>
       <c r="B8" s="9"/>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="34" t="s">
         <v>65</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -4958,14 +4376,14 @@
       <c r="E8" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F8" s="47"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="48" t="s">
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:12" ht="15.75">
+      <c r="A9" s="36" t="s">
         <v>125</v>
       </c>
       <c r="B9" s="9"/>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="34" t="s">
         <v>66</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -4974,31 +4392,31 @@
       <c r="E9" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="F9" s="47"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="48"/>
+      <c r="F9" s="35"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="36"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
-      <c r="F10" s="47"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11" s="46" t="s">
+      <c r="F10" s="35"/>
+    </row>
+    <row r="11" spans="1:12" ht="15.75">
+      <c r="A11" s="34" t="s">
         <v>116</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="34" t="s">
         <v>127</v>
       </c>
       <c r="D11" s="5">
         <v>20</v>
       </c>
       <c r="E11" s="9"/>
-      <c r="F11" s="47"/>
+      <c r="F11" s="35"/>
       <c r="K11">
         <v>1</v>
       </c>
@@ -5007,12 +4425,12 @@
       </c>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="48"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="47"/>
+      <c r="F12" s="35"/>
       <c r="K12">
         <v>2</v>
       </c>
@@ -5020,15 +4438,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
-      <c r="A13" s="50" t="s">
+    <row r="13" spans="1:12" ht="15.75">
+      <c r="A13" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="31"/>
-      <c r="E13" s="31"/>
-      <c r="F13" s="47"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="89"/>
+      <c r="D13" s="89"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="35"/>
       <c r="K13">
         <v>3</v>
       </c>
@@ -5037,14 +4455,14 @@
       </c>
     </row>
     <row r="14" spans="1:12">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="83" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="47"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="35"/>
       <c r="K14">
         <v>4</v>
       </c>
@@ -5053,12 +4471,12 @@
       </c>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="47"/>
+      <c r="A15" s="83"/>
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="35"/>
       <c r="K15">
         <v>5</v>
       </c>
@@ -5067,12 +4485,12 @@
       </c>
     </row>
     <row r="16" spans="1:12">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="47"/>
+      <c r="A16" s="83"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="35"/>
       <c r="K16">
         <v>6</v>
       </c>
@@ -5081,12 +4499,12 @@
       </c>
     </row>
     <row r="17" spans="1:12">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="47"/>
+      <c r="A17" s="83"/>
+      <c r="B17" s="83"/>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="35"/>
       <c r="K17">
         <v>7</v>
       </c>
@@ -5095,12 +4513,12 @@
       </c>
     </row>
     <row r="18" spans="1:12">
-      <c r="A18" s="48"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
-      <c r="F18" s="47"/>
+      <c r="F18" s="35"/>
       <c r="K18">
         <v>8</v>
       </c>
@@ -5108,17 +4526,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="48"/>
+    <row r="19" spans="1:12" ht="15.75">
+      <c r="A19" s="36"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="46" t="s">
+      <c r="D19" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="46" t="s">
+      <c r="E19" s="34" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="35"/>
       <c r="K19">
         <v>9</v>
       </c>
@@ -5127,12 +4545,12 @@
       </c>
     </row>
     <row r="20" spans="1:12">
-      <c r="A20" s="48"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
-      <c r="F20" s="47"/>
+      <c r="F20" s="35"/>
       <c r="K20">
         <v>10</v>
       </c>
@@ -5141,12 +4559,12 @@
       </c>
     </row>
     <row r="21" spans="1:12">
-      <c r="A21" s="51"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="53"/>
+      <c r="A21" s="39"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="41"/>
       <c r="K21">
         <v>11</v>
       </c>
@@ -5154,7 +4572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="11:12">
+    <row r="22" spans="1:12">
       <c r="K22">
         <v>12</v>
       </c>
@@ -5162,7 +4580,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="11:12">
+    <row r="23" spans="1:12">
       <c r="K23">
         <v>13</v>
       </c>
@@ -5170,7 +4588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="11:12">
+    <row r="24" spans="1:12">
       <c r="K24">
         <v>14</v>
       </c>
@@ -5178,7 +4596,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="11:12">
+    <row r="25" spans="1:12">
       <c r="K25">
         <v>15</v>
       </c>
@@ -5186,7 +4604,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="11:12">
+    <row r="26" spans="1:12">
       <c r="K26">
         <v>16</v>
       </c>
@@ -5194,7 +4612,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="11:12">
+    <row r="27" spans="1:12">
       <c r="K27">
         <v>17</v>
       </c>
@@ -5202,7 +4620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="11:12">
+    <row r="28" spans="1:12">
       <c r="K28">
         <v>18</v>
       </c>
@@ -5210,7 +4628,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="11:12">
+    <row r="29" spans="1:12">
       <c r="K29">
         <v>19</v>
       </c>
@@ -5218,7 +4636,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="11:12">
+    <row r="30" spans="1:12">
       <c r="K30">
         <v>20</v>
       </c>
@@ -5226,7 +4644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="11:12">
+    <row r="31" spans="1:12">
       <c r="K31">
         <v>21</v>
       </c>
@@ -5234,7 +4652,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="11:12">
+    <row r="32" spans="1:12">
       <c r="K32">
         <v>22</v>
       </c>
@@ -5905,60 +5323,56 @@
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="A14:E17"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -5966,8 +5380,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="1:7">
+      <c r="B5" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="5">
@@ -5976,11 +5390,11 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
       <c r="B6" s="4"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -5988,14 +5402,14 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="40" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="32" t="s">
         <v>130</v>
       </c>
       <c r="E7" s="5" t="s">
@@ -6004,67 +5418,67 @@
       <c r="F7" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="32">
+    <row r="8" spans="1:7">
+      <c r="B8" s="26">
         <v>1</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="G8" s="39"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="32">
+      <c r="G8" s="30"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="32" t="s">
         <v>135</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="39"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="32">
+      <c r="G9" s="30"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="B10" s="26">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="32">
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="B11" s="26">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="32" t="s">
         <v>78</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="2:7">
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="B12" s="4"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -6072,7 +5486,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" ht="16.5" spans="2:7">
+    <row r="13" spans="1:7">
       <c r="B13" s="13"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
@@ -6087,57 +5501,55 @@
   <hyperlinks>
     <hyperlink ref="A1" location="'Menu (User)'!A1" display="Back to Menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -6145,8 +5557,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="26" t="s">
         <v>70</v>
       </c>
       <c r="C5" s="18">
@@ -6155,21 +5567,21 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -6177,14 +5589,14 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="31" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="32" t="s">
         <v>130</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -6193,70 +5605,70 @@
       <c r="F8" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="30" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="32">
+      <c r="B9" s="26">
         <v>1</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D9" s="41" t="s">
+      <c r="D9" s="32" t="s">
         <v>134</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
-      <c r="G9" s="39"/>
-      <c r="I9" s="23" t="s">
+      <c r="G9" s="30"/>
+      <c r="I9" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="32">
+    <row r="10" spans="2:9">
+      <c r="B10" s="26">
         <v>1</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="32" t="s">
         <v>135</v>
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
-      <c r="G10" s="39"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="32">
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="2:9">
+      <c r="B11" s="26">
         <v>1</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="32" t="s">
         <v>77</v>
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
-      <c r="G11" s="39"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="32">
+      <c r="G11" s="30"/>
+    </row>
+    <row r="12" spans="2:9">
+      <c r="B12" s="26">
         <v>1</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="41" t="s">
+      <c r="D12" s="32" t="s">
         <v>78</v>
       </c>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="39"/>
-    </row>
-    <row r="13" spans="2:7">
+      <c r="G12" s="30"/>
+    </row>
+    <row r="13" spans="2:9">
       <c r="B13" s="4"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6264,7 +5676,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="16.5" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -6280,76 +5692,74 @@
   <hyperlinks>
     <hyperlink ref="I9" location="'Menu (Admin)'!A1" display="Back Menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="1:2">
       <c r="B3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="24" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" s="23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="1:2">
+      <c r="B7" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" s="23" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:2">
-      <c r="B11" s="23" t="s">
+    <row r="11" spans="1:2">
+      <c r="B11" s="22" t="s">
         <v>23</v>
       </c>
     </row>
@@ -6360,57 +5770,55 @@
     <hyperlink ref="B9" location="Register_RequestChangeInout!A1" display="List Request Change Inout (Register, Delete)"/>
     <hyperlink ref="B11" location="'Leave Summary'!A1" display="List Sumary Annual Laeve"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I14"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="25" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -6418,8 +5826,8 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="32" t="s">
+    <row r="5" spans="2:9">
+      <c r="B5" s="26" t="s">
         <v>137</v>
       </c>
       <c r="C5" s="18" t="s">
@@ -6430,17 +5838,17 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="32" t="s">
+    <row r="6" spans="2:9">
+      <c r="B6" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="88"/>
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -6448,7 +5856,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:9">
       <c r="B8" s="4"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -6456,13 +5864,13 @@
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="2:9">
       <c r="B9" s="4"/>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="27" t="s">
         <v>139</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="37" t="s">
+      <c r="E9" s="28" t="s">
         <v>140</v>
       </c>
       <c r="F9" s="9"/>
@@ -6475,11 +5883,11 @@
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
-      <c r="I10" s="23" t="s">
+      <c r="I10" s="22" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="2:9">
       <c r="B11" s="4"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -6487,7 +5895,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="2:9">
       <c r="B12" s="4"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -6495,7 +5903,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="2:9">
       <c r="B13" s="4"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -6503,7 +5911,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="16.5" spans="2:7">
+    <row r="14" spans="2:9">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -6519,52 +5927,278 @@
   <hyperlinks>
     <hyperlink ref="I10" location="'Menu (Admin)'!A1" display="Back Menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N12"/>
   <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
+  <cols>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="A1" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="2" spans="1:14" ht="30" customHeight="1">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4" s="1"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="3"/>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="B5" s="4"/>
+      <c r="C5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="B6" s="4"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="N6" s="10"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="B7" s="4"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="10"/>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" s="4"/>
+      <c r="C8" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="N8" s="10"/>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="B9" s="4"/>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="67" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0.375</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="10"/>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="B10" s="4"/>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0.375</v>
+      </c>
+      <c r="G10" s="21">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="10"/>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="B11" s="4"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="10"/>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A1" location="'Menu (User)'!A1" display="Back to Menu"/>
+  </hyperlinks>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:N14"/>
+  <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="16" t="s">
+    <row r="1" spans="2:14">
+      <c r="B1" s="97" t="s">
         <v>141</v>
       </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="2:6">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" ht="16.5"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+    </row>
+    <row r="2" spans="2:14" ht="30" customHeight="1">
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+    </row>
     <row r="4" spans="2:14">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
@@ -6582,14 +6216,14 @@
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="18"/>
+      <c r="E5" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="5"/>
+      <c r="F5" s="18"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
@@ -6601,12 +6235,14 @@
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="4"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="C6" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
       <c r="K6" s="9"/>
@@ -6614,7 +6250,7 @@
         <v>44</v>
       </c>
       <c r="M6" s="5" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="N6" s="10"/>
     </row>
@@ -6678,14 +6314,14 @@
       <c r="D9" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="E9" s="92" t="s">
+      <c r="E9" s="67" t="s">
         <v>153</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="19">
         <v>0.375</v>
       </c>
-      <c r="G9" s="20">
-        <v>0.708333333333333</v>
+      <c r="G9" s="19">
+        <v>0.70833333333333304</v>
       </c>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
@@ -6697,27 +6333,27 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="4"/>
-      <c r="C10" s="21">
+      <c r="C10" s="20">
         <v>1</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="20" t="s">
         <v>152</v>
       </c>
-      <c r="E10" s="93" t="s">
+      <c r="E10" s="68" t="s">
         <v>154</v>
       </c>
-      <c r="F10" s="22">
+      <c r="F10" s="21">
         <v>0.375</v>
       </c>
-      <c r="G10" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
+      <c r="G10" s="21">
+        <v>0.70833333333333304</v>
+      </c>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
       <c r="N10" s="10"/>
     </row>
     <row r="11" spans="2:14">
@@ -6735,7 +6371,7 @@
       <c r="M11" s="9"/>
       <c r="N11" s="10"/>
     </row>
-    <row r="12" ht="16.5" spans="2:14">
+    <row r="12" spans="2:14">
       <c r="B12" s="13"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
@@ -6750,244 +6386,8 @@
       <c r="M12" s="14"/>
       <c r="N12" s="15"/>
     </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:F2"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="A1" location="'Menu (User)'!A1" display="Back to Menu"/>
-  </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="B1:N14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="10.125" customWidth="1"/>
-    <col min="9" max="9" width="9.375" customWidth="1"/>
-    <col min="10" max="10" width="11.375" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:6">
-      <c r="B1" s="16" t="s">
-        <v>141</v>
-      </c>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-    </row>
-    <row r="2" ht="30" customHeight="1" spans="2:6">
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-    </row>
-    <row r="3" ht="16.5"/>
-    <row r="4" spans="2:14">
-      <c r="B4" s="1"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="3"/>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="4"/>
-      <c r="C5" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="10"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="4"/>
-      <c r="C6" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="M6" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="N6" s="10"/>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="4"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-      <c r="N7" s="10"/>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="4"/>
-      <c r="C8" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="N8" s="10"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="4"/>
-      <c r="C9" s="5">
-        <v>1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E9" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="20">
-        <v>0.375</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="10"/>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="4"/>
-      <c r="C10" s="21">
-        <v>1</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E10" s="93" t="s">
-        <v>154</v>
-      </c>
-      <c r="F10" s="22">
-        <v>0.375</v>
-      </c>
-      <c r="G10" s="22">
-        <v>0.708333333333333</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="10"/>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="4"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="9"/>
-      <c r="N11" s="10"/>
-    </row>
-    <row r="12" ht="16.5" spans="2:14">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="15"/>
-    </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="23" t="s">
+    <row r="14" spans="2:14">
+      <c r="E14" s="22" t="s">
         <v>156</v>
       </c>
     </row>
@@ -6999,30 +6399,27 @@
   <hyperlinks>
     <hyperlink ref="E14" location="'Menu (Admin)'!A1" display="Back To Menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" customWidth="1"/>
     <col min="2" max="2" width="7" customWidth="1"/>
-    <col min="3" max="3" width="13.125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16.5"/>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7031,7 +6428,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="4"/>
       <c r="B3" s="5" t="s">
         <v>72</v>
@@ -7044,7 +6441,7 @@
       <c r="F3" s="7"/>
       <c r="G3" s="8"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="4"/>
       <c r="B4" s="5" t="s">
         <v>58</v>
@@ -7057,7 +6454,7 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="4"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -7066,7 +6463,7 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="4"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -7101,7 +6498,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="4"/>
       <c r="B8" s="5" t="s">
         <v>53</v>
@@ -7120,7 +6517,7 @@
       </c>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="4"/>
       <c r="B9" s="5" t="s">
         <v>53</v>
@@ -7139,7 +6536,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" ht="16.5" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -7152,60 +6549,56 @@
   <hyperlinks>
     <hyperlink ref="H7" location="'Menu (Admin)'!A1" display="Back menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="15.125" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="14.625" customWidth="1"/>
-    <col min="6" max="6" width="11.375" customWidth="1"/>
-    <col min="7" max="7" width="13.375" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="11.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="1:7">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -7213,11 +6606,11 @@
       <c r="F4" s="2"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="2:7">
+    <row r="5" spans="1:7">
       <c r="B5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="54">
         <v>43086</v>
       </c>
       <c r="D5" s="9"/>
@@ -7225,11 +6618,11 @@
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="1:7">
       <c r="B6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="80">
+      <c r="C6" s="59">
         <v>43086</v>
       </c>
       <c r="D6" s="7"/>
@@ -7237,7 +6630,7 @@
       <c r="F6" s="9"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:7">
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -7245,7 +6638,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="1:7">
       <c r="B8" s="4"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -7253,27 +6646,27 @@
       <c r="F8" s="9"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="2:7">
+    <row r="9" spans="1:7">
       <c r="B9" s="4"/>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="69" t="s">
         <v>28</v>
       </c>
       <c r="D9" s="9"/>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="70" t="s">
         <v>29</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="2:7">
+    <row r="10" spans="1:7">
       <c r="B10" s="4"/>
-      <c r="C10" s="85"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="86"/>
+      <c r="E10" s="70"/>
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" spans="2:7">
+    <row r="11" spans="1:7">
       <c r="B11" s="4"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -7281,7 +6674,7 @@
       <c r="F11" s="9"/>
       <c r="G11" s="10"/>
     </row>
-    <row r="12" spans="2:7">
+    <row r="12" spans="1:7">
       <c r="B12" s="4"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -7289,7 +6682,7 @@
       <c r="F12" s="9"/>
       <c r="G12" s="10"/>
     </row>
-    <row r="13" spans="2:7">
+    <row r="13" spans="1:7">
       <c r="B13" s="4"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -7297,7 +6690,7 @@
       <c r="F13" s="9"/>
       <c r="G13" s="10"/>
     </row>
-    <row r="14" ht="16.5" spans="2:7">
+    <row r="14" spans="1:7">
       <c r="B14" s="13"/>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -7314,40 +6707,38 @@
   <hyperlinks>
     <hyperlink ref="A1" location="'Menu (Admin)'!A1" display="Back Menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    <row r="1" spans="1:9" ht="122.1" customHeight="1">
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7356,19 +6747,19 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="71" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9"/>
@@ -7377,8 +6768,8 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -7389,17 +6780,17 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>35</v>
       </c>
@@ -7409,7 +6800,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>36</v>
       </c>
@@ -7419,30 +6810,30 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="83"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="83"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9" ht="15.75">
       <c r="A11" s="4"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="84" t="s">
+      <c r="D11" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="84" t="s">
+      <c r="E11" s="62" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="10"/>
@@ -7458,7 +6849,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" ht="16.5" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -7473,54 +6864,52 @@
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="A9:E10"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="12.25" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" customWidth="1"/>
+    <col min="8" max="8" width="12.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:7">
-      <c r="C1" s="38" t="s">
+    <row r="1" spans="3:10">
+      <c r="C1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="3:7">
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" ht="16.5" spans="3:7">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="3:8">
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+    </row>
+    <row r="2" spans="3:10">
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="3:10">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="3:10">
       <c r="C4" s="1"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -7528,33 +6917,33 @@
       <c r="G4" s="2"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="3:8">
+    <row r="5" spans="3:10">
       <c r="C5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="75">
+      <c r="D5" s="55">
         <v>42736</v>
       </c>
-      <c r="E5" s="75" t="s">
+      <c r="E5" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="75">
+      <c r="F5" s="55">
         <v>42745</v>
       </c>
-      <c r="G5" s="81"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="3:8">
+    <row r="6" spans="3:10">
       <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
       <c r="H6" s="10"/>
     </row>
-    <row r="7" spans="3:8">
+    <row r="7" spans="3:10">
       <c r="C7" s="4"/>
       <c r="D7" s="9"/>
       <c r="F7" s="5" t="s">
@@ -7567,7 +6956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="3:8">
+    <row r="8" spans="3:10">
       <c r="C8" s="4"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
@@ -7589,24 +6978,24 @@
       <c r="G9" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="H9" s="83" t="s">
+      <c r="H9" s="61" t="s">
         <v>51</v>
       </c>
-      <c r="J9" s="23" t="s">
+      <c r="J9" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="3:8">
+    <row r="10" spans="3:10">
       <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="88" t="s">
+      <c r="D10" s="64" t="s">
         <v>54</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="59">
         <v>42826</v>
       </c>
       <c r="G10" s="6">
@@ -7616,7 +7005,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="3:8">
+    <row r="11" spans="3:10">
       <c r="C11" s="5" t="s">
         <v>53</v>
       </c>
@@ -7626,7 +7015,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" spans="3:8">
+    <row r="12" spans="3:10">
       <c r="C12" s="5" t="s">
         <v>53</v>
       </c>
@@ -7644,39 +7033,37 @@
   <hyperlinks>
     <hyperlink ref="J9" location="'Menu (Admin)'!A1" display="back menu"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    <row r="1" spans="1:9" ht="122.1" customHeight="1">
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7685,19 +7072,19 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="80" t="s">
         <v>30</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="71" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9"/>
@@ -7706,8 +7093,8 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="38" t="s">
         <v>32</v>
       </c>
       <c r="B5" s="18" t="s">
@@ -7718,17 +7105,17 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -7738,7 +7125,7 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:9">
       <c r="A8" s="4"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -7746,14 +7133,14 @@
       <c r="E8" s="9"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9" ht="15.75">
       <c r="A9" s="4"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="34" t="s">
         <v>38</v>
       </c>
       <c r="F9" s="10"/>
@@ -7769,7 +7156,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" ht="16.5" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -7783,51 +7170,49 @@
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="B6:E6"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:G12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="4.625" customWidth="1"/>
-    <col min="4" max="5" width="12.375" customWidth="1"/>
-    <col min="6" max="6" width="11.25" customWidth="1"/>
-    <col min="7" max="7" width="13.75" customWidth="1"/>
+    <col min="3" max="3" width="4.6640625" customWidth="1"/>
+    <col min="4" max="5" width="12.33203125" customWidth="1"/>
+    <col min="6" max="6" width="11.21875" customWidth="1"/>
+    <col min="7" max="7" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:7">
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="3:7">
-      <c r="C2" s="28"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-    </row>
-    <row r="3" ht="16.5" spans="3:7">
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+    </row>
+    <row r="3" spans="3:7">
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
     <row r="4" spans="3:7">
       <c r="C4" s="1"/>
@@ -7841,20 +7226,20 @@
         <v>58</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="75">
+      <c r="E5" s="55">
         <v>2017</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="79"/>
+      <c r="G5" s="58"/>
     </row>
     <row r="6" spans="3:7">
       <c r="C6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="35"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="88"/>
     </row>
     <row r="7" spans="3:7">
       <c r="C7" s="4"/>
@@ -7895,13 +7280,13 @@
       <c r="C10" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="74">
+      <c r="D10" s="54">
         <v>42855</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F10" s="80">
+      <c r="F10" s="59">
         <v>42826</v>
       </c>
       <c r="G10" s="6">
@@ -7931,39 +7316,37 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="C1:G2"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
-    <col min="4" max="4" width="14.625" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="122.1" customHeight="1" spans="1:7">
-      <c r="A1" s="42"/>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="44"/>
-    </row>
-    <row r="2" ht="33" customHeight="1" spans="1:7">
+    <row r="1" spans="1:9" ht="122.1" customHeight="1">
+      <c r="A1" s="77"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+    </row>
+    <row r="2" spans="1:9" ht="33" customHeight="1">
       <c r="A2" s="16"/>
       <c r="B2" s="17"/>
       <c r="C2" s="17"/>
@@ -7972,19 +7355,19 @@
       <c r="F2" s="17"/>
       <c r="G2" s="17"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:7">
-      <c r="A3" s="65"/>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="67" t="s">
+    <row r="3" spans="1:9" ht="18" customHeight="1">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="80" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="45"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="71" t="s">
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="33"/>
+    </row>
+    <row r="4" spans="1:9" ht="15.75">
+      <c r="A4" s="52" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="9"/>
@@ -7993,8 +7376,8 @@
       <c r="E4" s="9"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="46" t="s">
+    <row r="5" spans="1:9" ht="15.75">
+      <c r="A5" s="34" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -8005,15 +7388,15 @@
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="78"/>
+    <row r="6" spans="1:9" ht="15.75">
+      <c r="A6" s="57"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="10"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="4"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -8021,49 +7404,49 @@
       <c r="E7" s="9"/>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="72" t="s">
+    <row r="8" spans="1:9" ht="15.75">
+      <c r="A8" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
+      <c r="B8" s="89"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="73"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+    <row r="9" spans="1:9">
+      <c r="A9" s="90"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="73"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+    <row r="10" spans="1:9">
+      <c r="A10" s="90"/>
+      <c r="B10" s="83"/>
+      <c r="C10" s="83"/>
+      <c r="D10" s="83"/>
+      <c r="E10" s="83"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="73"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+    <row r="11" spans="1:9">
+      <c r="A11" s="90"/>
+      <c r="B11" s="83"/>
+      <c r="C11" s="83"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="83"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="73"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+    <row r="12" spans="1:9">
+      <c r="A12" s="90"/>
+      <c r="B12" s="83"/>
+      <c r="C12" s="83"/>
+      <c r="D12" s="83"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:9">
       <c r="A13" s="4"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -8071,14 +7454,14 @@
       <c r="E13" s="9"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9" ht="15.75">
       <c r="A14" s="4"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="46" t="s">
+      <c r="E14" s="34" t="s">
         <v>38</v>
       </c>
       <c r="F14" s="10"/>
@@ -8094,7 +7477,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="1:6">
+    <row r="16" spans="1:9">
       <c r="A16" s="13"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -8109,57 +7492,55 @@
     <mergeCell ref="B8:E8"/>
     <mergeCell ref="A9:E12"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.375" customWidth="1"/>
-    <col min="4" max="4" width="7.5" customWidth="1"/>
-    <col min="5" max="5" width="9.375" customWidth="1"/>
-    <col min="6" max="6" width="7.875" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
+    <col min="2" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.88671875" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7">
-      <c r="B1" s="38" t="s">
+    <row r="1" spans="2:9">
+      <c r="B1" s="85" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:7">
-      <c r="B2" s="28"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="30"/>
-    </row>
-    <row r="3" ht="16.5" spans="2:7">
-      <c r="B3" s="31"/>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7">
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="73"/>
+    </row>
+    <row r="2" spans="2:9">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+    </row>
+    <row r="4" spans="2:9">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -8168,25 +7549,25 @@
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="74">
+      <c r="C5" s="54">
         <v>42736</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E5" s="75">
+      <c r="E5" s="55">
         <v>43070</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="10"/>
-      <c r="I5" s="89" t="s">
+      <c r="I5" s="65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
+    <row r="6" spans="2:9">
       <c r="B6" s="4"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -8200,7 +7581,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:9">
       <c r="B7" s="4"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -8208,31 +7589,31 @@
       <c r="F7" s="9"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="40" t="s">
+    <row r="8" spans="2:9">
+      <c r="B8" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="86" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="76"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="77">
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="91"/>
+    </row>
+    <row r="9" spans="2:9">
+      <c r="B9" s="56">
         <v>42855</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="76"/>
-    </row>
-    <row r="10" spans="2:7">
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="91"/>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10" s="4"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -8240,7 +7621,7 @@
       <c r="F10" s="9"/>
       <c r="G10" s="10"/>
     </row>
-    <row r="11" ht="16.5" spans="2:7">
+    <row r="11" spans="2:9">
       <c r="B11" s="13"/>
       <c r="C11" s="14"/>
       <c r="D11" s="14"/>
@@ -8257,8 +7638,7 @@
   <hyperlinks>
     <hyperlink ref="I5" location="'Menu (Admin)'!A1" display="Menu (Admin)'!A1"/>
   </hyperlinks>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>